--- a/dev/Input data.xlsx
+++ b/dev/Input data.xlsx
@@ -1455,10 +1455,10 @@
   <dimension ref="A1:AD203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="T48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="O123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="AC140" sqref="AC140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5387,74 +5387,38 @@
         <v>290</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="K49" s="5">
         <v>0.9</v>
       </c>
-      <c r="L49" s="5">
-        <f>K49*0.75</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="M49" s="5">
-        <f>K49*1.25</f>
-        <v>1.125</v>
-      </c>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
       <c r="N49" s="5">
         <v>0.9</v>
       </c>
-      <c r="O49" s="5">
-        <f>N49*0.75</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="P49" s="5">
-        <f>N49*1.25</f>
-        <v>1.125</v>
-      </c>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
       <c r="Q49" s="5">
         <v>0.9</v>
       </c>
-      <c r="R49" s="5">
-        <f>Q49*0.75</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="S49" s="5">
-        <f>Q49*1.25</f>
-        <v>1.125</v>
-      </c>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
       <c r="T49" s="5">
         <v>0.9</v>
       </c>
-      <c r="U49" s="5">
-        <f>T49*0.75</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="V49" s="5">
-        <f>T49*1.25</f>
-        <v>1.125</v>
-      </c>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
       <c r="W49" s="5">
         <v>0.9</v>
       </c>
-      <c r="X49" s="5">
-        <f>W49*0.75</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="Y49" s="5">
-        <f>W49*1.25</f>
-        <v>1.125</v>
-      </c>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
       <c r="Z49" s="5">
         <v>0.9</v>
       </c>
-      <c r="AA49" s="5">
-        <f>Z49*0.75</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AB49" s="5">
-        <f>Z49*1.25</f>
-        <v>1.125</v>
-      </c>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
     </row>
     <row r="50" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -13778,70 +13742,70 @@
         <v>52</v>
       </c>
       <c r="K140" s="31">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L140" s="31">
         <f>K140*0.75</f>
-        <v>32.25</v>
+        <v>25.5</v>
       </c>
       <c r="M140" s="31">
         <f>K140*1.25</f>
-        <v>53.75</v>
+        <v>42.5</v>
       </c>
       <c r="N140" s="31">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="O140" s="31">
         <f t="shared" si="159"/>
-        <v>32.25</v>
+        <v>25.5</v>
       </c>
       <c r="P140" s="31">
         <f t="shared" si="154"/>
-        <v>53.75</v>
+        <v>42.5</v>
       </c>
       <c r="Q140" s="31">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R140" s="31">
         <f t="shared" si="159"/>
-        <v>32.25</v>
+        <v>25.5</v>
       </c>
       <c r="S140" s="31">
         <f t="shared" si="155"/>
-        <v>53.75</v>
+        <v>42.5</v>
       </c>
       <c r="T140" s="31">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="U140" s="31">
         <f t="shared" si="159"/>
-        <v>32.25</v>
+        <v>25.5</v>
       </c>
       <c r="V140" s="31">
         <f t="shared" si="156"/>
-        <v>53.75</v>
+        <v>42.5</v>
       </c>
       <c r="W140" s="31">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="X140" s="31">
         <f t="shared" si="159"/>
-        <v>32.25</v>
+        <v>25.5</v>
       </c>
       <c r="Y140" s="31">
         <f t="shared" si="157"/>
-        <v>53.75</v>
+        <v>42.5</v>
       </c>
       <c r="Z140" s="31">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AA140" s="31">
         <f t="shared" si="159"/>
-        <v>32.25</v>
+        <v>25.5</v>
       </c>
       <c r="AB140" s="31">
         <f t="shared" si="158"/>
-        <v>53.75</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="141" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
@@ -14342,70 +14306,70 @@
         <v>52</v>
       </c>
       <c r="K146" s="31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L146" s="31">
         <f>K146*0.75</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M146" s="31">
         <f>K146*1.25</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N146" s="31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O146" s="31">
         <f t="shared" si="159"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P146" s="31">
         <f t="shared" si="154"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q146" s="31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="R146" s="31">
         <f t="shared" si="159"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S146" s="31">
         <f t="shared" si="155"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T146" s="31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="U146" s="31">
         <f t="shared" si="159"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="V146" s="31">
         <f t="shared" si="156"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W146" s="31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="X146" s="31">
         <f t="shared" si="159"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y146" s="31">
         <f t="shared" si="157"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z146" s="31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AA146" s="31">
         <f t="shared" si="159"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AB146" s="31">
         <f t="shared" si="158"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
@@ -14436,70 +14400,70 @@
         <v>52</v>
       </c>
       <c r="K147" s="31">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L147" s="31">
         <f>K147*0.75</f>
-        <v>15.75</v>
+        <v>10.5</v>
       </c>
       <c r="M147" s="31">
         <f>K147*1.25</f>
-        <v>26.25</v>
+        <v>17.5</v>
       </c>
       <c r="N147" s="31">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O147" s="31">
         <f t="shared" si="159"/>
-        <v>15.75</v>
+        <v>10.5</v>
       </c>
       <c r="P147" s="31">
         <f t="shared" si="154"/>
-        <v>26.25</v>
+        <v>17.5</v>
       </c>
       <c r="Q147" s="31">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="R147" s="31">
         <f t="shared" si="159"/>
-        <v>15.75</v>
+        <v>10.5</v>
       </c>
       <c r="S147" s="31">
         <f t="shared" si="155"/>
-        <v>26.25</v>
+        <v>17.5</v>
       </c>
       <c r="T147" s="31">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="U147" s="31">
         <f t="shared" si="159"/>
-        <v>15.75</v>
+        <v>10.5</v>
       </c>
       <c r="V147" s="31">
         <f t="shared" si="156"/>
-        <v>26.25</v>
+        <v>17.5</v>
       </c>
       <c r="W147" s="31">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="X147" s="31">
         <f t="shared" si="159"/>
-        <v>15.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y147" s="31">
         <f t="shared" si="157"/>
-        <v>26.25</v>
+        <v>17.5</v>
       </c>
       <c r="Z147" s="31">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AA147" s="31">
         <f t="shared" si="159"/>
-        <v>15.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB147" s="31">
         <f t="shared" si="158"/>
-        <v>26.25</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="148" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
@@ -14530,70 +14494,70 @@
         <v>52</v>
       </c>
       <c r="K148" s="31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L148" s="31">
         <f>K148*0.75</f>
-        <v>14.25</v>
+        <v>15.75</v>
       </c>
       <c r="M148" s="31">
         <f>K148*1.25</f>
-        <v>23.75</v>
+        <v>26.25</v>
       </c>
       <c r="N148" s="31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O148" s="31">
         <f t="shared" si="159"/>
-        <v>14.25</v>
+        <v>15.75</v>
       </c>
       <c r="P148" s="31">
         <f t="shared" si="154"/>
-        <v>23.75</v>
+        <v>26.25</v>
       </c>
       <c r="Q148" s="31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R148" s="31">
         <f t="shared" si="159"/>
-        <v>14.25</v>
+        <v>15.75</v>
       </c>
       <c r="S148" s="31">
         <f t="shared" si="155"/>
-        <v>23.75</v>
+        <v>26.25</v>
       </c>
       <c r="T148" s="31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U148" s="31">
         <f t="shared" si="159"/>
-        <v>14.25</v>
+        <v>15.75</v>
       </c>
       <c r="V148" s="31">
         <f t="shared" si="156"/>
-        <v>23.75</v>
+        <v>26.25</v>
       </c>
       <c r="W148" s="31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X148" s="31">
         <f t="shared" si="159"/>
-        <v>14.25</v>
+        <v>15.75</v>
       </c>
       <c r="Y148" s="31">
         <f t="shared" si="157"/>
-        <v>23.75</v>
+        <v>26.25</v>
       </c>
       <c r="Z148" s="31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA148" s="31">
         <f t="shared" si="159"/>
-        <v>14.25</v>
+        <v>15.75</v>
       </c>
       <c r="AB148" s="31">
         <f t="shared" si="158"/>
-        <v>23.75</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="149" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
@@ -14624,70 +14588,70 @@
         <v>52</v>
       </c>
       <c r="K149" s="31">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L149" s="31">
         <f>K149*0.75</f>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M149" s="31">
         <f>K149*1.25</f>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N149" s="31">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O149" s="31">
         <f t="shared" ref="O149:AA151" si="160">N149*0.75</f>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P149" s="31">
         <f t="shared" si="154"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Q149" s="31">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="R149" s="31">
         <f t="shared" si="160"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S149" s="31">
         <f t="shared" si="155"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="T149" s="31">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="U149" s="31">
         <f t="shared" si="160"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V149" s="31">
         <f t="shared" si="156"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W149" s="31">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="X149" s="31">
         <f t="shared" si="160"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Y149" s="31">
         <f t="shared" si="157"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Z149" s="31">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AA149" s="31">
         <f t="shared" si="160"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AB149" s="31">
         <f t="shared" si="158"/>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
@@ -14718,70 +14682,70 @@
         <v>52</v>
       </c>
       <c r="K150" s="31">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L150" s="31">
         <f>K150*0.75</f>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="M150" s="31">
         <f>K150*1.25</f>
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="N150" s="31">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O150" s="31">
         <f t="shared" si="160"/>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="P150" s="31">
         <f t="shared" si="154"/>
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="Q150" s="31">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="R150" s="31">
         <f t="shared" si="160"/>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="S150" s="31">
         <f t="shared" si="155"/>
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="T150" s="31">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="U150" s="31">
         <f t="shared" si="160"/>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="V150" s="31">
         <f t="shared" si="156"/>
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="W150" s="31">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="X150" s="31">
         <f t="shared" si="160"/>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="Y150" s="31">
         <f t="shared" si="157"/>
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="Z150" s="31">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AA150" s="31">
         <f t="shared" si="160"/>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="AB150" s="31">
         <f t="shared" si="158"/>
-        <v>45</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="151" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
@@ -14812,70 +14776,70 @@
         <v>52</v>
       </c>
       <c r="K151" s="31">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="L151" s="31">
         <f>K151*0.75</f>
-        <v>56.25</v>
+        <v>27</v>
       </c>
       <c r="M151" s="31">
         <f>K151*1.25</f>
-        <v>93.75</v>
+        <v>45</v>
       </c>
       <c r="N151" s="31">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="O151" s="31">
         <f t="shared" si="160"/>
-        <v>56.25</v>
+        <v>27</v>
       </c>
       <c r="P151" s="31">
         <f t="shared" si="154"/>
-        <v>93.75</v>
+        <v>45</v>
       </c>
       <c r="Q151" s="31">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="R151" s="31">
         <f t="shared" si="160"/>
-        <v>56.25</v>
+        <v>27</v>
       </c>
       <c r="S151" s="31">
         <f t="shared" si="155"/>
-        <v>93.75</v>
+        <v>45</v>
       </c>
       <c r="T151" s="31">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="U151" s="31">
         <f t="shared" si="160"/>
-        <v>56.25</v>
+        <v>27</v>
       </c>
       <c r="V151" s="31">
         <f t="shared" si="156"/>
-        <v>93.75</v>
+        <v>45</v>
       </c>
       <c r="W151" s="31">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="X151" s="31">
         <f t="shared" si="160"/>
-        <v>56.25</v>
+        <v>27</v>
       </c>
       <c r="Y151" s="31">
         <f t="shared" si="157"/>
-        <v>93.75</v>
+        <v>45</v>
       </c>
       <c r="Z151" s="31">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AA151" s="31">
         <f t="shared" si="160"/>
-        <v>56.25</v>
+        <v>27</v>
       </c>
       <c r="AB151" s="31">
         <f t="shared" si="158"/>
-        <v>93.75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">

--- a/dev/Input data.xlsx
+++ b/dev/Input data.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle parameters'!$A$2:$AB$209</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="15" iterateDelta="0.01"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -410,18 +410,10 @@
 And a 400kW motor from Wolff et al. 2020</t>
   </si>
   <si>
-    <t>https://batteryuniversity.com/learn/article/fuel_cell_technology</t>
-  </si>
-  <si>
     <t>hours</t>
   </si>
   <si>
     <t>fuel cell lifetime hours</t>
-  </si>
-  <si>
-    <t>Between 2000 and 4000 hours for passenger cars.
-For MDV and HDV, FC are assumed to be sturdier and used at lower intenisty.
-Hence, around 5000 hours in 2020, 7000 hours in 2050.</t>
   </si>
   <si>
     <t>number of axles</t>
@@ -900,6 +892,12 @@
   </si>
   <si>
     <t>battery cell energy density, NMC</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy21osti/75583.pdf</t>
+  </si>
+  <si>
+    <t>Around 17,000 hours on average to reach 20% cell voltage degradation. DoE's ultimate target is 25,000 hours, which we set for 2050.</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1438,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomRight" activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1613,10 +1611,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>82</v>
@@ -1628,7 +1626,7 @@
         <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>50</v>
@@ -1697,10 +1695,10 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>82</v>
@@ -1712,10 +1710,10 @@
         <v>58</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>50</v>
@@ -1783,10 +1781,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>82</v>
@@ -1798,10 +1796,10 @@
         <v>58</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>50</v>
@@ -1869,10 +1867,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>82</v>
@@ -1884,10 +1882,10 @@
         <v>58</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>50</v>
@@ -1958,10 +1956,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>61</v>
@@ -1970,10 +1968,10 @@
         <v>58</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>88</v>
@@ -2020,10 +2018,10 @@
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>61</v>
@@ -2032,10 +2030,10 @@
         <v>58</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>88</v>
@@ -2076,13 +2074,13 @@
         <v>23</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>74</v>
@@ -2093,7 +2091,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="27"/>
       <c r="I9" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>88</v>
@@ -2134,13 +2132,13 @@
         <v>23</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>74</v>
@@ -2151,7 +2149,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="27"/>
       <c r="I10" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>88</v>
@@ -2192,13 +2190,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>74</v>
@@ -2209,7 +2207,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="27"/>
       <c r="I11" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>88</v>
@@ -2253,10 +2251,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>74</v>
@@ -2267,7 +2265,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="27"/>
       <c r="I12" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>88</v>
@@ -2311,10 +2309,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>74</v>
@@ -2325,7 +2323,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="27"/>
       <c r="I13" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>88</v>
@@ -2366,13 +2364,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>74</v>
@@ -2384,10 +2382,10 @@
         <v>58</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>50</v>
@@ -2452,13 +2450,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>74</v>
@@ -2470,10 +2468,10 @@
         <v>58</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>50</v>
@@ -2538,13 +2536,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>74</v>
@@ -2557,7 +2555,7 @@
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>50</v>
@@ -2622,13 +2620,13 @@
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
@@ -2641,7 +2639,7 @@
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>50</v>
@@ -2709,10 +2707,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>82</v>
@@ -2724,10 +2722,10 @@
         <v>58</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>50</v>
@@ -2807,10 +2805,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>82</v>
@@ -2822,10 +2820,10 @@
         <v>58</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>50</v>
@@ -2905,10 +2903,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>82</v>
@@ -2920,10 +2918,10 @@
         <v>58</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>50</v>
@@ -3000,13 +2998,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>82</v>
@@ -3018,10 +3016,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>50</v>
@@ -3098,13 +3096,13 @@
         <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>82</v>
@@ -3116,10 +3114,10 @@
         <v>58</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>50</v>
@@ -3199,7 +3197,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>2</v>
@@ -3214,10 +3212,10 @@
         <v>58</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>50</v>
@@ -3297,7 +3295,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>2</v>
@@ -3312,10 +3310,10 @@
         <v>58</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>50</v>
@@ -3395,7 +3393,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>2</v>
@@ -3410,10 +3408,10 @@
         <v>58</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>50</v>
@@ -3493,7 +3491,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>46</v>
@@ -3508,10 +3506,10 @@
         <v>58</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>50</v>
@@ -3591,7 +3589,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>46</v>
@@ -3606,10 +3604,10 @@
         <v>58</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>50</v>
@@ -3689,7 +3687,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>46</v>
@@ -3704,10 +3702,10 @@
         <v>58</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>50</v>
@@ -3784,16 +3782,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>60</v>
@@ -3803,7 +3801,7 @@
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>88</v>
@@ -3844,16 +3842,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>60</v>
@@ -3863,7 +3861,7 @@
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>88</v>
@@ -3907,13 +3905,13 @@
         <v>20</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>60</v>
@@ -3923,7 +3921,7 @@
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>88</v>
@@ -3964,13 +3962,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>77</v>
@@ -3983,7 +3981,7 @@
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>88</v>
@@ -4278,7 +4276,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>20</v>
@@ -4360,7 +4358,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>20</v>
@@ -4620,7 +4618,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>20</v>
@@ -4708,10 +4706,10 @@
         <v>20</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>60</v>
@@ -4720,67 +4718,67 @@
         <v>58</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>124</v>
+        <v>284</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>50</v>
       </c>
       <c r="K42" s="5">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="L42" s="5">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M42" s="5">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="N42" s="5">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="O42" s="5">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P42" s="5">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q42" s="1">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="R42" s="5">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="S42" s="5">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="T42" s="5">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="U42" s="5">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="V42" s="5">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="W42" s="5">
-        <v>6000</v>
+        <v>22500</v>
       </c>
       <c r="X42" s="5">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="Y42" s="5">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="Z42" s="3">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="AA42" s="3">
-        <v>6000</v>
+        <v>22500</v>
       </c>
       <c r="AB42" s="3">
-        <v>7000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
@@ -5048,7 +5046,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>77</v>
@@ -5058,10 +5056,10 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>50</v>
@@ -5081,7 +5079,7 @@
         <v>2000</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" ref="O46:AB46" si="28">N46*0.75</f>
+        <f t="shared" ref="O46" si="28">N46*0.75</f>
         <v>1500</v>
       </c>
       <c r="P46" s="5">
@@ -5092,7 +5090,7 @@
         <v>2000</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" ref="R46:AB46" si="30">Q46*0.75</f>
+        <f t="shared" ref="R46" si="30">Q46*0.75</f>
         <v>1500</v>
       </c>
       <c r="S46" s="5">
@@ -5103,7 +5101,7 @@
         <v>2000</v>
       </c>
       <c r="U46" s="5">
-        <f t="shared" ref="U46:AB46" si="32">T46*0.75</f>
+        <f t="shared" ref="U46" si="32">T46*0.75</f>
         <v>1500</v>
       </c>
       <c r="V46" s="5">
@@ -5114,7 +5112,7 @@
         <v>2000</v>
       </c>
       <c r="X46" s="5">
-        <f t="shared" ref="X46:AB46" si="34">W46*0.75</f>
+        <f t="shared" ref="X46" si="34">W46*0.75</f>
         <v>1500</v>
       </c>
       <c r="Y46" s="5">
@@ -5125,7 +5123,7 @@
         <v>2000</v>
       </c>
       <c r="AA46" s="5">
-        <f t="shared" ref="AA46:AB46" si="36">Z46*0.75</f>
+        <f t="shared" ref="AA46" si="36">Z46*0.75</f>
         <v>1500</v>
       </c>
       <c r="AB46" s="5">
@@ -5144,7 +5142,7 @@
         <v>20</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>77</v>
@@ -5154,10 +5152,10 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>50</v>
@@ -5177,7 +5175,7 @@
         <v>1000</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" ref="O47:AB47" si="38">N47*0.75</f>
+        <f t="shared" ref="O47" si="38">N47*0.75</f>
         <v>750</v>
       </c>
       <c r="P47" s="5">
@@ -5188,7 +5186,7 @@
         <v>1000</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" ref="R47:AB47" si="39">Q47*0.75</f>
+        <f t="shared" ref="R47" si="39">Q47*0.75</f>
         <v>750</v>
       </c>
       <c r="S47" s="5">
@@ -5199,7 +5197,7 @@
         <v>1000</v>
       </c>
       <c r="U47" s="5">
-        <f t="shared" ref="U47:AB47" si="40">T47*0.75</f>
+        <f t="shared" ref="U47" si="40">T47*0.75</f>
         <v>750</v>
       </c>
       <c r="V47" s="5">
@@ -5210,7 +5208,7 @@
         <v>1000</v>
       </c>
       <c r="X47" s="5">
-        <f t="shared" ref="X47:AB47" si="41">W47*0.75</f>
+        <f t="shared" ref="X47" si="41">W47*0.75</f>
         <v>750</v>
       </c>
       <c r="Y47" s="5">
@@ -5221,7 +5219,7 @@
         <v>1000</v>
       </c>
       <c r="AA47" s="5">
-        <f t="shared" ref="AA47:AB47" si="42">Z47*0.75</f>
+        <f t="shared" ref="AA47" si="42">Z47*0.75</f>
         <v>750</v>
       </c>
       <c r="AB47" s="5">
@@ -5240,7 +5238,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>77</v>
@@ -5250,10 +5248,10 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>50</v>
@@ -5273,7 +5271,7 @@
         <v>7000</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" ref="O48:AB48" si="43">N48*0.75</f>
+        <f t="shared" ref="O48" si="43">N48*0.75</f>
         <v>5250</v>
       </c>
       <c r="P48" s="5">
@@ -5284,7 +5282,7 @@
         <v>7000</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" ref="R48:AB48" si="44">Q48*0.75</f>
+        <f t="shared" ref="R48" si="44">Q48*0.75</f>
         <v>5250</v>
       </c>
       <c r="S48" s="5">
@@ -5295,7 +5293,7 @@
         <v>7000</v>
       </c>
       <c r="U48" s="5">
-        <f t="shared" ref="U48:AB48" si="45">T48*0.75</f>
+        <f t="shared" ref="U48" si="45">T48*0.75</f>
         <v>5250</v>
       </c>
       <c r="V48" s="5">
@@ -5306,7 +5304,7 @@
         <v>7000</v>
       </c>
       <c r="X48" s="5">
-        <f t="shared" ref="X48:AB48" si="46">W48*0.75</f>
+        <f t="shared" ref="X48" si="46">W48*0.75</f>
         <v>5250</v>
       </c>
       <c r="Y48" s="5">
@@ -5317,7 +5315,7 @@
         <v>7000</v>
       </c>
       <c r="AA48" s="5">
-        <f t="shared" ref="AA48:AB48" si="47">Z48*0.75</f>
+        <f t="shared" ref="AA48" si="47">Z48*0.75</f>
         <v>5250</v>
       </c>
       <c r="AB48" s="5">
@@ -5336,7 +5334,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>77</v>
@@ -5346,10 +5344,10 @@
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>50</v>
@@ -5369,7 +5367,7 @@
         <v>7000</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" ref="O49:AB49" si="48">N49*0.75</f>
+        <f t="shared" ref="O49" si="48">N49*0.75</f>
         <v>5250</v>
       </c>
       <c r="P49" s="5">
@@ -5380,7 +5378,7 @@
         <v>7000</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" ref="R49:AB49" si="49">Q49*0.75</f>
+        <f t="shared" ref="R49" si="49">Q49*0.75</f>
         <v>5250</v>
       </c>
       <c r="S49" s="5">
@@ -5391,7 +5389,7 @@
         <v>7000</v>
       </c>
       <c r="U49" s="5">
-        <f t="shared" ref="U49:AB49" si="50">T49*0.75</f>
+        <f t="shared" ref="U49" si="50">T49*0.75</f>
         <v>5250</v>
       </c>
       <c r="V49" s="5">
@@ -5402,7 +5400,7 @@
         <v>7000</v>
       </c>
       <c r="X49" s="5">
-        <f t="shared" ref="X49:AB49" si="51">W49*0.75</f>
+        <f t="shared" ref="X49" si="51">W49*0.75</f>
         <v>5250</v>
       </c>
       <c r="Y49" s="5">
@@ -5413,7 +5411,7 @@
         <v>7000</v>
       </c>
       <c r="AA49" s="5">
-        <f t="shared" ref="AA49:AB49" si="52">Z49*0.75</f>
+        <f t="shared" ref="AA49" si="52">Z49*0.75</f>
         <v>5250</v>
       </c>
       <c r="AB49" s="5">
@@ -5426,7 +5424,7 @@
         <v>24</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>20</v>
@@ -5512,13 +5510,13 @@
         <v>24</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>74</v>
@@ -5530,10 +5528,10 @@
         <v>59</v>
       </c>
       <c r="H51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>88</v>
@@ -5574,7 +5572,7 @@
         <v>24</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>20</v>
@@ -5592,10 +5590,10 @@
         <v>59</v>
       </c>
       <c r="H52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>50</v>
@@ -5672,7 +5670,7 @@
         <v>24</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>20</v>
@@ -5690,10 +5688,10 @@
         <v>59</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>50</v>
@@ -5782,10 +5780,10 @@
         <v>59</v>
       </c>
       <c r="H54" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>88</v>
@@ -5826,13 +5824,13 @@
         <v>24</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>74</v>
@@ -5844,10 +5842,10 @@
         <v>58</v>
       </c>
       <c r="H55" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>50</v>
@@ -5912,13 +5910,13 @@
         <v>24</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>74</v>
@@ -5930,10 +5928,10 @@
         <v>58</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>50</v>
@@ -5998,7 +5996,7 @@
         <v>24</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>20</v>
@@ -6016,10 +6014,10 @@
         <v>59</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>50</v>
@@ -6090,7 +6088,7 @@
         <v>24</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>20</v>
@@ -6111,7 +6109,7 @@
         <v>55</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>50</v>
@@ -6182,7 +6180,7 @@
         <v>24</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>20</v>
@@ -6274,7 +6272,7 @@
         <v>24</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>20</v>
@@ -6446,7 +6444,7 @@
         <v>24</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>20</v>
@@ -6618,7 +6616,7 @@
         <v>24</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>20</v>
@@ -6710,7 +6708,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>20</v>
@@ -6974,7 +6972,7 @@
         <v>20</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>83</v>
@@ -7058,7 +7056,7 @@
         <v>20</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>83</v>
@@ -7142,7 +7140,7 @@
         <v>20</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>83</v>
@@ -7238,7 +7236,7 @@
         <v>20</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>83</v>
@@ -7250,7 +7248,7 @@
         <v>59</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3" t="s">
@@ -7328,13 +7326,13 @@
         <v>24</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>82</v>
@@ -7346,10 +7344,10 @@
         <v>59</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>88</v>
@@ -7390,13 +7388,13 @@
         <v>24</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>82</v>
@@ -7409,7 +7407,7 @@
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>88</v>
@@ -7450,13 +7448,13 @@
         <v>24</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>74</v>
@@ -7468,10 +7466,10 @@
         <v>59</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>50</v>
@@ -7541,10 +7539,10 @@
         <v>20</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>77</v>
@@ -7556,7 +7554,7 @@
         <v>57</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J75" s="16" t="s">
         <v>88</v>
@@ -7600,10 +7598,10 @@
         <v>20</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>77</v>
@@ -7615,7 +7613,7 @@
         <v>57</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J76" s="16" t="s">
         <v>88</v>
@@ -7659,7 +7657,7 @@
         <v>20</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D77" s="19" t="s">
         <v>112</v>
@@ -7677,7 +7675,7 @@
         <v>96</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J77" s="19" t="s">
         <v>50</v>
@@ -7757,7 +7755,7 @@
         <v>20</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D78" s="19" t="s">
         <v>112</v>
@@ -7775,7 +7773,7 @@
         <v>96</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J78" s="19" t="s">
         <v>50</v>
@@ -7855,7 +7853,7 @@
         <v>20</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>112</v>
@@ -7873,7 +7871,7 @@
         <v>96</v>
       </c>
       <c r="I79" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J79" s="19" t="s">
         <v>50</v>
@@ -7953,7 +7951,7 @@
         <v>20</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>112</v>
@@ -7971,7 +7969,7 @@
         <v>96</v>
       </c>
       <c r="I80" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J80" s="19" t="s">
         <v>50</v>
@@ -8051,7 +8049,7 @@
         <v>20</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>112</v>
@@ -8069,7 +8067,7 @@
         <v>96</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J81" s="19" t="s">
         <v>50</v>
@@ -8149,7 +8147,7 @@
         <v>20</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>112</v>
@@ -8167,7 +8165,7 @@
         <v>96</v>
       </c>
       <c r="I82" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J82" s="19" t="s">
         <v>50</v>
@@ -8247,7 +8245,7 @@
         <v>20</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>110</v>
@@ -8265,7 +8263,7 @@
         <v>96</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J83" s="19" t="s">
         <v>50</v>
@@ -8345,7 +8343,7 @@
         <v>20</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D84" s="19" t="s">
         <v>110</v>
@@ -8363,7 +8361,7 @@
         <v>96</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J84" s="19" t="s">
         <v>50</v>
@@ -8443,7 +8441,7 @@
         <v>20</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>110</v>
@@ -8461,7 +8459,7 @@
         <v>96</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J85" s="19" t="s">
         <v>50</v>
@@ -8541,7 +8539,7 @@
         <v>20</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D86" s="19" t="s">
         <v>110</v>
@@ -8559,7 +8557,7 @@
         <v>96</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J86" s="19" t="s">
         <v>50</v>
@@ -8639,7 +8637,7 @@
         <v>20</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>110</v>
@@ -8657,7 +8655,7 @@
         <v>96</v>
       </c>
       <c r="I87" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J87" s="19" t="s">
         <v>50</v>
@@ -8737,7 +8735,7 @@
         <v>20</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>110</v>
@@ -8755,7 +8753,7 @@
         <v>96</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J88" s="19" t="s">
         <v>50</v>
@@ -8916,10 +8914,10 @@
         <v>21</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>0</v>
@@ -9018,10 +9016,10 @@
         <v>21</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>0</v>
@@ -9120,10 +9118,10 @@
         <v>21</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>0</v>
@@ -9222,10 +9220,10 @@
         <v>21</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>0</v>
@@ -9324,10 +9322,10 @@
         <v>21</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>0</v>
@@ -9426,10 +9424,10 @@
         <v>21</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>0</v>
@@ -9528,10 +9526,10 @@
         <v>21</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>0</v>
@@ -9630,10 +9628,10 @@
         <v>21</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>0</v>
@@ -9732,10 +9730,10 @@
         <v>21</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>0</v>
@@ -9834,10 +9832,10 @@
         <v>21</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>0</v>
@@ -9936,10 +9934,10 @@
         <v>21</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>0</v>
@@ -10038,10 +10036,10 @@
         <v>21</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>0</v>
@@ -10143,7 +10141,7 @@
         <v>20</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>104</v>
@@ -10201,7 +10199,7 @@
         <v>20</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>104</v>
@@ -10259,7 +10257,7 @@
         <v>20</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>104</v>
@@ -10317,7 +10315,7 @@
         <v>20</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>104</v>
@@ -10375,7 +10373,7 @@
         <v>20</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>17</v>
@@ -10393,7 +10391,7 @@
         <v>96</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>50</v>
@@ -10473,7 +10471,7 @@
         <v>20</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>17</v>
@@ -10491,7 +10489,7 @@
         <v>96</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>50</v>
@@ -10571,7 +10569,7 @@
         <v>20</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>17</v>
@@ -10589,7 +10587,7 @@
         <v>96</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>50</v>
@@ -10669,7 +10667,7 @@
         <v>20</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>17</v>
@@ -10687,7 +10685,7 @@
         <v>96</v>
       </c>
       <c r="I109" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>50</v>
@@ -10767,7 +10765,7 @@
         <v>20</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>17</v>
@@ -10785,7 +10783,7 @@
         <v>96</v>
       </c>
       <c r="I110" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J110" s="3" t="s">
         <v>50</v>
@@ -10865,7 +10863,7 @@
         <v>20</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>17</v>
@@ -10883,7 +10881,7 @@
         <v>96</v>
       </c>
       <c r="I111" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>50</v>
@@ -10963,7 +10961,7 @@
         <v>20</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>30</v>
@@ -10981,7 +10979,7 @@
         <v>96</v>
       </c>
       <c r="I112" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>50</v>
@@ -11057,7 +11055,7 @@
         <v>20</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>30</v>
@@ -11075,7 +11073,7 @@
         <v>96</v>
       </c>
       <c r="I113" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>50</v>
@@ -11151,10 +11149,10 @@
         <v>20</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>73</v>
@@ -11169,7 +11167,7 @@
         <v>96</v>
       </c>
       <c r="I114" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>50</v>
@@ -11249,10 +11247,10 @@
         <v>20</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>73</v>
@@ -11267,7 +11265,7 @@
         <v>96</v>
       </c>
       <c r="I115" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>50</v>
@@ -11347,10 +11345,10 @@
         <v>20</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>73</v>
@@ -11365,7 +11363,7 @@
         <v>96</v>
       </c>
       <c r="I116" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>50</v>
@@ -11445,10 +11443,10 @@
         <v>20</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>73</v>
@@ -11463,7 +11461,7 @@
         <v>96</v>
       </c>
       <c r="I117" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>50</v>
@@ -11543,10 +11541,10 @@
         <v>20</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>73</v>
@@ -11561,7 +11559,7 @@
         <v>96</v>
       </c>
       <c r="I118" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>50</v>
@@ -11641,10 +11639,10 @@
         <v>20</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>73</v>
@@ -11659,7 +11657,7 @@
         <v>96</v>
       </c>
       <c r="I119" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>50</v>
@@ -11739,7 +11737,7 @@
         <v>20</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>51</v>
@@ -11755,7 +11753,7 @@
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>50</v>
@@ -11835,7 +11833,7 @@
         <v>20</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>51</v>
@@ -11851,7 +11849,7 @@
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J121" s="3" t="s">
         <v>50</v>
@@ -11931,7 +11929,7 @@
         <v>20</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>51</v>
@@ -11947,7 +11945,7 @@
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>50</v>
@@ -12027,7 +12025,7 @@
         <v>20</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>51</v>
@@ -12043,7 +12041,7 @@
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>50</v>
@@ -12123,7 +12121,7 @@
         <v>20</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>51</v>
@@ -12139,7 +12137,7 @@
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>50</v>
@@ -12219,7 +12217,7 @@
         <v>20</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>51</v>
@@ -12235,7 +12233,7 @@
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>50</v>
@@ -12312,10 +12310,10 @@
         <v>21</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D126" s="19" t="s">
         <v>113</v>
@@ -12333,7 +12331,7 @@
         <v>96</v>
       </c>
       <c r="I126" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J126" s="19" t="s">
         <v>50</v>
@@ -12410,10 +12408,10 @@
         <v>21</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D127" s="19" t="s">
         <v>113</v>
@@ -12431,7 +12429,7 @@
         <v>96</v>
       </c>
       <c r="I127" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J127" s="19" t="s">
         <v>50</v>
@@ -12508,10 +12506,10 @@
         <v>21</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D128" s="19" t="s">
         <v>113</v>
@@ -12529,7 +12527,7 @@
         <v>96</v>
       </c>
       <c r="I128" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J128" s="19" t="s">
         <v>50</v>
@@ -12606,10 +12604,10 @@
         <v>21</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D129" s="19" t="s">
         <v>113</v>
@@ -12627,7 +12625,7 @@
         <v>96</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J129" s="19" t="s">
         <v>50</v>
@@ -12704,10 +12702,10 @@
         <v>21</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D130" s="19" t="s">
         <v>113</v>
@@ -12725,7 +12723,7 @@
         <v>96</v>
       </c>
       <c r="I130" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J130" s="19" t="s">
         <v>50</v>
@@ -12802,10 +12800,10 @@
         <v>21</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D131" s="19" t="s">
         <v>113</v>
@@ -12823,7 +12821,7 @@
         <v>96</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J131" s="19" t="s">
         <v>50</v>
@@ -12903,7 +12901,7 @@
         <v>20</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D132" s="19" t="s">
         <v>114</v>
@@ -12921,7 +12919,7 @@
         <v>96</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J132" s="19" t="s">
         <v>50</v>
@@ -13001,7 +12999,7 @@
         <v>20</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D133" s="19" t="s">
         <v>114</v>
@@ -13019,7 +13017,7 @@
         <v>96</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J133" s="19" t="s">
         <v>50</v>
@@ -13099,7 +13097,7 @@
         <v>20</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D134" s="19" t="s">
         <v>114</v>
@@ -13117,7 +13115,7 @@
         <v>96</v>
       </c>
       <c r="I134" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J134" s="19" t="s">
         <v>50</v>
@@ -13197,7 +13195,7 @@
         <v>20</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D135" s="19" t="s">
         <v>114</v>
@@ -13215,7 +13213,7 @@
         <v>96</v>
       </c>
       <c r="I135" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J135" s="19" t="s">
         <v>50</v>
@@ -13295,7 +13293,7 @@
         <v>20</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D136" s="19" t="s">
         <v>114</v>
@@ -13313,7 +13311,7 @@
         <v>96</v>
       </c>
       <c r="I136" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J136" s="19" t="s">
         <v>50</v>
@@ -13393,7 +13391,7 @@
         <v>20</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D137" s="19" t="s">
         <v>114</v>
@@ -13411,7 +13409,7 @@
         <v>96</v>
       </c>
       <c r="I137" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J137" s="19" t="s">
         <v>50</v>
@@ -13491,7 +13489,7 @@
         <v>20</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D138" s="19" t="s">
         <v>111</v>
@@ -13509,7 +13507,7 @@
         <v>96</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J138" s="19" t="s">
         <v>50</v>
@@ -13589,7 +13587,7 @@
         <v>20</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D139" s="19" t="s">
         <v>111</v>
@@ -13607,7 +13605,7 @@
         <v>96</v>
       </c>
       <c r="I139" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J139" s="19" t="s">
         <v>50</v>
@@ -13687,7 +13685,7 @@
         <v>20</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D140" s="19" t="s">
         <v>111</v>
@@ -13705,7 +13703,7 @@
         <v>96</v>
       </c>
       <c r="I140" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J140" s="19" t="s">
         <v>50</v>
@@ -13785,7 +13783,7 @@
         <v>20</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D141" s="19" t="s">
         <v>111</v>
@@ -13803,7 +13801,7 @@
         <v>96</v>
       </c>
       <c r="I141" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J141" s="19" t="s">
         <v>50</v>
@@ -13883,7 +13881,7 @@
         <v>20</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D142" s="19" t="s">
         <v>111</v>
@@ -13901,7 +13899,7 @@
         <v>96</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J142" s="19" t="s">
         <v>50</v>
@@ -13981,7 +13979,7 @@
         <v>20</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D143" s="19" t="s">
         <v>111</v>
@@ -13999,7 +13997,7 @@
         <v>96</v>
       </c>
       <c r="I143" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J143" s="19" t="s">
         <v>50</v>
@@ -14079,10 +14077,10 @@
         <v>20</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E144" s="19" t="s">
         <v>77</v>
@@ -14173,10 +14171,10 @@
         <v>20</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E145" s="19" t="s">
         <v>77</v>
@@ -14267,10 +14265,10 @@
         <v>20</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E146" s="19" t="s">
         <v>77</v>
@@ -14361,10 +14359,10 @@
         <v>20</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E147" s="19" t="s">
         <v>77</v>
@@ -14455,10 +14453,10 @@
         <v>20</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E148" s="19" t="s">
         <v>77</v>
@@ -14549,10 +14547,10 @@
         <v>20</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E149" s="19" t="s">
         <v>77</v>
@@ -14643,7 +14641,7 @@
         <v>20</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D150" s="19" t="s">
         <v>3</v>
@@ -14737,7 +14735,7 @@
         <v>20</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D151" s="19" t="s">
         <v>3</v>
@@ -14831,7 +14829,7 @@
         <v>20</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D152" s="19" t="s">
         <v>3</v>
@@ -14925,7 +14923,7 @@
         <v>20</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D153" s="19" t="s">
         <v>3</v>
@@ -15019,7 +15017,7 @@
         <v>20</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D154" s="19" t="s">
         <v>3</v>
@@ -15113,7 +15111,7 @@
         <v>20</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D155" s="19" t="s">
         <v>3</v>
@@ -15222,7 +15220,7 @@
         <v>57</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3" t="s">
@@ -15294,7 +15292,7 @@
         <v>20</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>73</v>
@@ -15306,7 +15304,7 @@
         <v>57</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3" t="s">
@@ -15402,10 +15400,10 @@
         <v>59</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J158" s="3" t="s">
         <v>50</v>
@@ -15666,7 +15664,7 @@
         <v>22</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>20</v>
@@ -15748,7 +15746,7 @@
         <v>22</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>20</v>
@@ -15840,7 +15838,7 @@
         <v>22</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>20</v>
@@ -16443,7 +16441,7 @@
         <v>22</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>20</v>
@@ -16645,7 +16643,7 @@
         <v>22</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>20</v>
@@ -16775,7 +16773,7 @@
         <v>20</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>74</v>
@@ -16790,7 +16788,7 @@
         <v>117</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J174" s="3" t="s">
         <v>50</v>
@@ -16855,13 +16853,13 @@
         <v>22</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E175" s="8" t="s">
         <v>74</v>
@@ -16873,7 +16871,7 @@
         <v>58</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="3" t="s">
@@ -16939,7 +16937,7 @@
         <v>22</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>20</v>
@@ -17025,7 +17023,7 @@
         <v>22</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>20</v>
@@ -17087,13 +17085,13 @@
         <v>22</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>74</v>
@@ -17106,7 +17104,7 @@
       </c>
       <c r="H178" s="7"/>
       <c r="I178" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J178" s="3" t="s">
         <v>88</v>
@@ -17147,13 +17145,13 @@
         <v>22</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E179" s="8" t="s">
         <v>74</v>
@@ -17165,10 +17163,10 @@
         <v>59</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J179" s="3" t="s">
         <v>50</v>
@@ -17245,7 +17243,7 @@
         <v>22</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>20</v>
@@ -17337,7 +17335,7 @@
         <v>22</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>20</v>
@@ -17481,7 +17479,7 @@
         <v>22</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>20</v>
@@ -17576,19 +17574,19 @@
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D184" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E184" s="23" t="s">
         <v>191</v>
-      </c>
-      <c r="B184" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D184" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E184" s="23" t="s">
-        <v>193</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>63</v>
@@ -17597,10 +17595,10 @@
         <v>59</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J184" s="3" t="s">
         <v>50</v>
@@ -17674,7 +17672,7 @@
     </row>
     <row r="185" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B185" s="23" t="s">
         <v>20</v>
@@ -17683,7 +17681,7 @@
         <v>20</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E185" s="23" t="s">
         <v>74</v>
@@ -17753,19 +17751,19 @@
     </row>
     <row r="186" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D186" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E186" s="23" t="s">
         <v>191</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D186" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E186" s="23" t="s">
-        <v>193</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>63</v>
@@ -17774,10 +17772,10 @@
         <v>59</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J186" s="3" t="s">
         <v>50</v>
@@ -17858,7 +17856,7 @@
     </row>
     <row r="187" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B187" s="23" t="s">
         <v>35</v>
@@ -17867,10 +17865,10 @@
         <v>20</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E187" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>63</v>
@@ -17879,10 +17877,10 @@
         <v>59</v>
       </c>
       <c r="H187" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I187" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="I187" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="J187" s="3" t="s">
         <v>50</v>
@@ -17963,19 +17961,19 @@
     </row>
     <row r="188" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D188" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E188" s="23" t="s">
         <v>191</v>
-      </c>
-      <c r="B188" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D188" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E188" s="23" t="s">
-        <v>193</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>63</v>
@@ -17984,10 +17982,10 @@
         <v>59</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J188" s="3" t="s">
         <v>50</v>
@@ -18050,7 +18048,7 @@
     </row>
     <row r="189" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B189" s="23" t="s">
         <v>20</v>
@@ -18059,7 +18057,7 @@
         <v>20</v>
       </c>
       <c r="D189" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E189" s="23" t="s">
         <v>74</v>
@@ -18129,7 +18127,7 @@
     </row>
     <row r="190" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B190" s="23" t="s">
         <v>20</v>
@@ -18138,10 +18136,10 @@
         <v>20</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E190" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>63</v>
@@ -18150,10 +18148,10 @@
         <v>59</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J190" s="3" t="s">
         <v>50</v>
@@ -18216,19 +18214,19 @@
     </row>
     <row r="191" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C191" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D191" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E191" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -18295,7 +18293,7 @@
     </row>
     <row r="192" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B192" s="23" t="s">
         <v>20</v>
@@ -18304,10 +18302,10 @@
         <v>20</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E192" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -18374,7 +18372,7 @@
     </row>
     <row r="193" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B193" s="23" t="s">
         <v>35</v>
@@ -18383,10 +18381,10 @@
         <v>20</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E193" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>60</v>
@@ -18395,7 +18393,7 @@
         <v>58</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="3" t="s">
@@ -18459,19 +18457,19 @@
     </row>
     <row r="194" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C194" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E194" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -18538,7 +18536,7 @@
     </row>
     <row r="195" spans="1:30" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B195" s="23" t="s">
         <v>28</v>
@@ -18547,10 +18545,10 @@
         <v>20</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E195" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>60</v>
@@ -18559,10 +18557,10 @@
         <v>58</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J195" s="3" t="s">
         <v>50</v>
@@ -18643,19 +18641,19 @@
     </row>
     <row r="196" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C196" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E196" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -18722,7 +18720,7 @@
     </row>
     <row r="197" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B197" s="23" t="s">
         <v>35</v>
@@ -18731,10 +18729,10 @@
         <v>20</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E197" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -18801,19 +18799,19 @@
     </row>
     <row r="198" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C198" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E198" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
@@ -18880,7 +18878,7 @@
     </row>
     <row r="199" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B199" s="23" t="s">
         <v>28</v>
@@ -18889,10 +18887,10 @@
         <v>20</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E199" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -18959,19 +18957,19 @@
     </row>
     <row r="200" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C200" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E200" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
@@ -19038,19 +19036,19 @@
     </row>
     <row r="201" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C201" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E201" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
@@ -19117,19 +19115,19 @@
     </row>
     <row r="202" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C202" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D202" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E202" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
@@ -19196,7 +19194,7 @@
     </row>
     <row r="203" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B203" s="23" t="s">
         <v>105</v>
@@ -19205,10 +19203,10 @@
         <v>20</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E203" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
@@ -19251,19 +19249,19 @@
     </row>
     <row r="204" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C204" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E204" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
@@ -19330,7 +19328,7 @@
     </row>
     <row r="205" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B205" s="23" t="s">
         <v>28</v>
@@ -19339,10 +19337,10 @@
         <v>20</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E205" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -19409,7 +19407,7 @@
     </row>
     <row r="206" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B206" s="23" t="s">
         <v>27</v>
@@ -19418,10 +19416,10 @@
         <v>20</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E206" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -19488,19 +19486,19 @@
     </row>
     <row r="207" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E207" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
@@ -19567,19 +19565,19 @@
     </row>
     <row r="208" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C208" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E208" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
@@ -19646,19 +19644,19 @@
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C209" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E209" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>62</v>
@@ -19668,7 +19666,7 @@
       </c>
       <c r="H209" s="3"/>
       <c r="I209" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J209" s="3" t="s">
         <v>50</v>
@@ -19734,71 +19732,70 @@
   <hyperlinks>
     <hyperlink ref="H158" r:id="rId1"/>
     <hyperlink ref="H89" r:id="rId2"/>
-    <hyperlink ref="H42" r:id="rId3"/>
-    <hyperlink ref="H180" r:id="rId4"/>
-    <hyperlink ref="H177" r:id="rId5"/>
-    <hyperlink ref="H176" r:id="rId6"/>
-    <hyperlink ref="H170" r:id="rId7"/>
-    <hyperlink ref="H171" r:id="rId8"/>
-    <hyperlink ref="H172" r:id="rId9"/>
-    <hyperlink ref="H173" r:id="rId10"/>
-    <hyperlink ref="H161" r:id="rId11"/>
-    <hyperlink ref="H112" r:id="rId12"/>
-    <hyperlink ref="H113" r:id="rId13"/>
-    <hyperlink ref="H159" r:id="rId14"/>
-    <hyperlink ref="H160" r:id="rId15"/>
-    <hyperlink ref="H45" r:id="rId16"/>
-    <hyperlink ref="H182" r:id="rId17"/>
-    <hyperlink ref="H4" r:id="rId18"/>
-    <hyperlink ref="H5" r:id="rId19"/>
-    <hyperlink ref="H6" r:id="rId20"/>
-    <hyperlink ref="H77" r:id="rId21"/>
-    <hyperlink ref="H78" r:id="rId22"/>
-    <hyperlink ref="H80" r:id="rId23"/>
-    <hyperlink ref="H82" r:id="rId24"/>
-    <hyperlink ref="H79" r:id="rId25"/>
-    <hyperlink ref="H81" r:id="rId26"/>
-    <hyperlink ref="H83" r:id="rId27"/>
-    <hyperlink ref="H84" r:id="rId28"/>
-    <hyperlink ref="H85" r:id="rId29"/>
-    <hyperlink ref="H86" r:id="rId30"/>
-    <hyperlink ref="H87" r:id="rId31"/>
-    <hyperlink ref="H88" r:id="rId32"/>
-    <hyperlink ref="H106:H111" r:id="rId33" display="https://ec.europa.eu/clima/sites/clima/files/transport/vehicles/heavy/docs/hdv_lightweighting_en.pdf"/>
-    <hyperlink ref="H126" r:id="rId34"/>
-    <hyperlink ref="H127" r:id="rId35"/>
-    <hyperlink ref="H128" r:id="rId36"/>
-    <hyperlink ref="H129" r:id="rId37"/>
-    <hyperlink ref="H130" r:id="rId38"/>
-    <hyperlink ref="H131" r:id="rId39"/>
-    <hyperlink ref="H132" r:id="rId40"/>
-    <hyperlink ref="H133" r:id="rId41"/>
-    <hyperlink ref="H134" r:id="rId42"/>
-    <hyperlink ref="H135" r:id="rId43"/>
-    <hyperlink ref="H136" r:id="rId44"/>
-    <hyperlink ref="H137" r:id="rId45"/>
-    <hyperlink ref="H138" r:id="rId46"/>
-    <hyperlink ref="H139" r:id="rId47"/>
-    <hyperlink ref="H140" r:id="rId48"/>
-    <hyperlink ref="H141" r:id="rId49"/>
-    <hyperlink ref="H142" r:id="rId50"/>
-    <hyperlink ref="H143" r:id="rId51"/>
-    <hyperlink ref="H156" r:id="rId52"/>
-    <hyperlink ref="H157" r:id="rId53"/>
-    <hyperlink ref="H18" r:id="rId54" location="bib41"/>
-    <hyperlink ref="H8" r:id="rId55"/>
-    <hyperlink ref="H7" r:id="rId56"/>
-    <hyperlink ref="H19" r:id="rId57" location="bib41"/>
-    <hyperlink ref="H20" r:id="rId58" location="bib41"/>
-    <hyperlink ref="H195" r:id="rId59"/>
-    <hyperlink ref="H114:H119" r:id="rId60" display="https://ec.europa.eu/clima/sites/clima/files/transport/vehicles/heavy/docs/hdv_lightweighting_en.pdf"/>
-    <hyperlink ref="H72" r:id="rId61"/>
-    <hyperlink ref="H15" r:id="rId62"/>
-    <hyperlink ref="H175" r:id="rId63"/>
-    <hyperlink ref="H57" r:id="rId64"/>
-    <hyperlink ref="H68:H70" r:id="rId65" display="https://pubs.acs.org/doi/pdf/10.1021/acsenergylett.7b00432"/>
+    <hyperlink ref="H180" r:id="rId3"/>
+    <hyperlink ref="H177" r:id="rId4"/>
+    <hyperlink ref="H176" r:id="rId5"/>
+    <hyperlink ref="H170" r:id="rId6"/>
+    <hyperlink ref="H171" r:id="rId7"/>
+    <hyperlink ref="H172" r:id="rId8"/>
+    <hyperlink ref="H173" r:id="rId9"/>
+    <hyperlink ref="H161" r:id="rId10"/>
+    <hyperlink ref="H112" r:id="rId11"/>
+    <hyperlink ref="H113" r:id="rId12"/>
+    <hyperlink ref="H159" r:id="rId13"/>
+    <hyperlink ref="H160" r:id="rId14"/>
+    <hyperlink ref="H45" r:id="rId15"/>
+    <hyperlink ref="H182" r:id="rId16"/>
+    <hyperlink ref="H4" r:id="rId17"/>
+    <hyperlink ref="H5" r:id="rId18"/>
+    <hyperlink ref="H6" r:id="rId19"/>
+    <hyperlink ref="H77" r:id="rId20"/>
+    <hyperlink ref="H78" r:id="rId21"/>
+    <hyperlink ref="H80" r:id="rId22"/>
+    <hyperlink ref="H82" r:id="rId23"/>
+    <hyperlink ref="H79" r:id="rId24"/>
+    <hyperlink ref="H81" r:id="rId25"/>
+    <hyperlink ref="H83" r:id="rId26"/>
+    <hyperlink ref="H84" r:id="rId27"/>
+    <hyperlink ref="H85" r:id="rId28"/>
+    <hyperlink ref="H86" r:id="rId29"/>
+    <hyperlink ref="H87" r:id="rId30"/>
+    <hyperlink ref="H88" r:id="rId31"/>
+    <hyperlink ref="H106:H111" r:id="rId32" display="https://ec.europa.eu/clima/sites/clima/files/transport/vehicles/heavy/docs/hdv_lightweighting_en.pdf"/>
+    <hyperlink ref="H126" r:id="rId33"/>
+    <hyperlink ref="H127" r:id="rId34"/>
+    <hyperlink ref="H128" r:id="rId35"/>
+    <hyperlink ref="H129" r:id="rId36"/>
+    <hyperlink ref="H130" r:id="rId37"/>
+    <hyperlink ref="H131" r:id="rId38"/>
+    <hyperlink ref="H132" r:id="rId39"/>
+    <hyperlink ref="H133" r:id="rId40"/>
+    <hyperlink ref="H134" r:id="rId41"/>
+    <hyperlink ref="H135" r:id="rId42"/>
+    <hyperlink ref="H136" r:id="rId43"/>
+    <hyperlink ref="H137" r:id="rId44"/>
+    <hyperlink ref="H138" r:id="rId45"/>
+    <hyperlink ref="H139" r:id="rId46"/>
+    <hyperlink ref="H140" r:id="rId47"/>
+    <hyperlink ref="H141" r:id="rId48"/>
+    <hyperlink ref="H142" r:id="rId49"/>
+    <hyperlink ref="H143" r:id="rId50"/>
+    <hyperlink ref="H156" r:id="rId51"/>
+    <hyperlink ref="H157" r:id="rId52"/>
+    <hyperlink ref="H18" r:id="rId53" location="bib41"/>
+    <hyperlink ref="H8" r:id="rId54"/>
+    <hyperlink ref="H7" r:id="rId55"/>
+    <hyperlink ref="H19" r:id="rId56" location="bib41"/>
+    <hyperlink ref="H20" r:id="rId57" location="bib41"/>
+    <hyperlink ref="H195" r:id="rId58"/>
+    <hyperlink ref="H114:H119" r:id="rId59" display="https://ec.europa.eu/clima/sites/clima/files/transport/vehicles/heavy/docs/hdv_lightweighting_en.pdf"/>
+    <hyperlink ref="H72" r:id="rId60"/>
+    <hyperlink ref="H15" r:id="rId61"/>
+    <hyperlink ref="H175" r:id="rId62"/>
+    <hyperlink ref="H57" r:id="rId63"/>
+    <hyperlink ref="H68:H70" r:id="rId64" display="https://pubs.acs.org/doi/pdf/10.1021/acsenergylett.7b00432"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
--- a/dev/Input data.xlsx
+++ b/dev/Input data.xlsx
@@ -1454,10 +1454,10 @@
   <dimension ref="A1:AD227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D228" sqref="D228"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3010,7 +3010,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -4384,73 +4384,73 @@
         <v>50</v>
       </c>
       <c r="K33" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L33" s="5">
         <f>K33*0.75</f>
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="M33" s="5">
         <f>K33*1.25</f>
-        <v>1250</v>
+        <v>1875</v>
       </c>
       <c r="N33" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="O33" s="5">
         <f>N33*0.75</f>
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="P33" s="5">
         <f>N33*1.25</f>
-        <v>1250</v>
+        <v>1875</v>
       </c>
       <c r="Q33" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="R33" s="5">
         <f>Q33*0.75</f>
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="S33" s="5">
         <f>Q33*1.25</f>
-        <v>1250</v>
+        <v>1875</v>
       </c>
       <c r="T33" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="U33" s="5">
         <f>T33*0.75</f>
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="V33" s="5">
         <f>T33*1.25</f>
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="W33" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="X33" s="5">
         <f>W33*0.75</f>
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="Y33" s="5">
         <f>W33*1.25</f>
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="Z33" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="AA33" s="5">
         <f>Z33*0.75</f>
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="AB33" s="5">
         <f>Z33*1.25</f>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>24</v>
       </c>
@@ -4480,70 +4480,70 @@
         <v>50</v>
       </c>
       <c r="K34" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L34" s="5">
         <f>K34*0.75</f>
-        <v>1500</v>
+        <v>2250</v>
       </c>
       <c r="M34" s="5">
         <f>K34*1.25</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="N34" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O34" s="5">
         <f>N34*0.75</f>
-        <v>1500</v>
+        <v>2250</v>
       </c>
       <c r="P34" s="5">
         <f>N34*1.25</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="Q34" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="R34" s="5">
         <f>Q34*0.75</f>
-        <v>1500</v>
+        <v>2250</v>
       </c>
       <c r="S34" s="5">
         <f>Q34*1.25</f>
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="T34" s="5">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="U34" s="5">
         <f>T34*0.75</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="V34" s="5">
         <f>T34*1.25</f>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="W34" s="5">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="X34" s="5">
         <f>W34*0.75</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Y34" s="5">
         <f>W34*1.25</f>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Z34" s="5">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="AA34" s="5">
         <f>Z34*0.75</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="AB34" s="5">
         <f>Z34*1.25</f>
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
@@ -17030,7 +17030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="1:28" s="21" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:28" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="19" t="s">
         <v>21</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="184" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="19" t="s">
         <v>21</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>15.950000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="19" t="s">
         <v>21</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>15.400000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="19" t="s">
         <v>21</v>
       </c>
@@ -17422,7 +17422,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="187" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="19" t="s">
         <v>21</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>14.850000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="19" t="s">
         <v>21</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>14.850000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A189" s="19" t="s">
         <v>21</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>17.763975155279507</v>
       </c>
     </row>
-    <row r="190" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A190" s="19" t="s">
         <v>21</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="191" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A191" s="19" t="s">
         <v>21</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>17.763975155279507</v>
       </c>
     </row>
-    <row r="192" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A192" s="19" t="s">
         <v>21</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="193" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A193" s="19" t="s">
         <v>21</v>
       </c>
@@ -18110,7 +18110,7 @@
         <v>24.200000000000003</v>
       </c>
     </row>
-    <row r="194" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A194" s="19" t="s">
         <v>21</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>17.763975155279507</v>
       </c>
     </row>
-    <row r="195" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A195" s="19" t="s">
         <v>21</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="196" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A196" s="19" t="s">
         <v>21</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>17.763975155279507</v>
       </c>
     </row>
-    <row r="197" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A197" s="19" t="s">
         <v>21</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="198" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A198" s="19" t="s">
         <v>21</v>
       </c>
@@ -18602,7 +18602,7 @@
         <v>12.65</v>
       </c>
     </row>
-    <row r="199" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A199" s="19" t="s">
         <v>21</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="200" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="19" t="s">
         <v>21</v>
       </c>
@@ -18795,7 +18795,7 @@
       </c>
       <c r="AD200" s="1"/>
     </row>
-    <row r="201" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="19" t="s">
         <v>21</v>
       </c>
@@ -18892,7 +18892,7 @@
       </c>
       <c r="AD201" s="1"/>
     </row>
-    <row r="202" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="19" t="s">
         <v>21</v>
       </c>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="AD202" s="1"/>
     </row>
-    <row r="203" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="19" t="s">
         <v>21</v>
       </c>
@@ -19086,7 +19086,7 @@
       </c>
       <c r="AD203" s="1"/>
     </row>
-    <row r="204" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="19" t="s">
         <v>21</v>
       </c>
@@ -19183,7 +19183,7 @@
       </c>
       <c r="AD204" s="1"/>
     </row>
-    <row r="205" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="19" t="s">
         <v>21</v>
       </c>
@@ -19280,7 +19280,7 @@
       </c>
       <c r="AD205" s="1"/>
     </row>
-    <row r="206" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="19" t="s">
         <v>21</v>
       </c>
@@ -19377,7 +19377,7 @@
       </c>
       <c r="AD206" s="1"/>
     </row>
-    <row r="207" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="19" t="s">
         <v>21</v>
       </c>
@@ -19474,7 +19474,7 @@
       </c>
       <c r="AD207" s="1"/>
     </row>
-    <row r="208" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="19" t="s">
         <v>21</v>
       </c>
@@ -21395,8 +21395,7 @@
   <autoFilter ref="A2:AB227">
     <filterColumn colId="3">
       <filters>
-        <filter val="battery cell energy density, NMC"/>
-        <filter val="battery cycle life, NMC"/>
+        <filter val="power to mass ratio"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dev/Input data.xlsx
+++ b/dev/Input data.xlsx
@@ -1463,21 +1463,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AD229"/>
+  <dimension ref="A1:AO229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="S198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="T172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA200" sqref="AA200"/>
+      <selection pane="bottomRight" activeCell="AA179" sqref="AA179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" style="16" customWidth="1"/>
     <col min="5" max="5" width="6" style="16" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" style="2" customWidth="1"/>
@@ -2962,7 +2962,7 @@
         <v>1862.5</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>21</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>2243.75</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>21</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>2691.25</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>2691.25</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>21</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>21</v>
       </c>
@@ -3633,8 +3633,20 @@
         <f t="shared" si="35"/>
         <v>15.950000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+    </row>
+    <row r="24" spans="1:41" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>21</v>
       </c>
@@ -3731,8 +3743,20 @@
         <f t="shared" si="35"/>
         <v>15.400000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+    </row>
+    <row r="25" spans="1:41" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>21</v>
       </c>
@@ -3829,8 +3853,20 @@
         <f t="shared" si="35"/>
         <v>14.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+    </row>
+    <row r="26" spans="1:41" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>21</v>
       </c>
@@ -3927,8 +3963,20 @@
         <f t="shared" si="35"/>
         <v>14.850000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+    </row>
+    <row r="27" spans="1:41" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>21</v>
       </c>
@@ -4025,8 +4073,20 @@
         <f t="shared" si="35"/>
         <v>14.850000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+    </row>
+    <row r="28" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>21</v>
       </c>
@@ -4127,8 +4187,20 @@
         <f t="shared" si="35"/>
         <v>17.763975155279507</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+    </row>
+    <row r="29" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>21</v>
       </c>
@@ -4223,8 +4295,20 @@
         <f t="shared" si="35"/>
         <v>19.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+    </row>
+    <row r="30" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>21</v>
       </c>
@@ -4325,8 +4409,20 @@
         <f t="shared" si="35"/>
         <v>17.763975155279507</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+    </row>
+    <row r="31" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>21</v>
       </c>
@@ -4421,8 +4517,20 @@
         <f t="shared" si="35"/>
         <v>19.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+    </row>
+    <row r="32" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>21</v>
       </c>
@@ -4517,6 +4625,18 @@
         <f t="shared" si="35"/>
         <v>24.200000000000003</v>
       </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
     </row>
     <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
@@ -7001,7 +7121,7 @@
       <c r="I60" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J60" s="16" t="s">
+      <c r="J60" s="3" t="s">
         <v>88</v>
       </c>
       <c r="K60" s="5">
@@ -7060,7 +7180,7 @@
       <c r="I61" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J61" s="16" t="s">
+      <c r="J61" s="3" t="s">
         <v>88</v>
       </c>
       <c r="K61" s="5">
@@ -7296,7 +7416,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>186</v>
       </c>
@@ -7400,7 +7520,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>186</v>
       </c>
@@ -7504,7 +7624,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>186</v>
       </c>
@@ -7590,7 +7710,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>21</v>
       </c>
@@ -7684,7 +7804,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>21</v>
       </c>
@@ -7778,7 +7898,7 @@
         <v>0.33750000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>29</v>
       </c>
@@ -7876,7 +7996,7 @@
         <v>770000.00000000012</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>29</v>
       </c>
@@ -7974,7 +8094,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="72" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>24</v>
       </c>
@@ -8032,7 +8152,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>24</v>
       </c>
@@ -8090,9 +8210,8 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
-    </row>
-    <row r="74" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>24</v>
       </c>
@@ -8150,7 +8269,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
@@ -8248,7 +8367,7 @@
         <v>55000.000000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>29</v>
       </c>
@@ -8346,7 +8465,7 @@
         <v>55000.000000000007</v>
       </c>
     </row>
-    <row r="77" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>22</v>
       </c>
@@ -8438,7 +8557,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="78" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>22</v>
       </c>
@@ -8528,7 +8647,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="79" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>186</v>
       </c>
@@ -8606,7 +8725,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>186</v>
       </c>
@@ -11310,7 +11429,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="113" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>24</v>
       </c>
@@ -11396,7 +11515,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>24</v>
       </c>
@@ -11478,7 +11597,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="115" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>186</v>
       </c>
@@ -11562,7 +11681,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="116" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>186</v>
       </c>
@@ -11640,7 +11759,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>186</v>
       </c>
@@ -11744,7 +11863,7 @@
         <v>34.267517746478866</v>
       </c>
     </row>
-    <row r="118" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>22</v>
       </c>
@@ -11833,7 +11952,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="119" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>22</v>
       </c>
@@ -11919,7 +12038,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="120" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>22</v>
       </c>
@@ -12005,7 +12124,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="121" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>22</v>
       </c>
@@ -12083,7 +12202,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>24</v>
       </c>
@@ -12115,7 +12234,7 @@
         <v>50</v>
       </c>
       <c r="K122" s="5">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="L122" s="5">
         <v>5000</v>
@@ -12169,7 +12288,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="123" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>22</v>
       </c>
@@ -12256,7 +12375,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="124" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>22</v>
       </c>
@@ -12343,7 +12462,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="19" t="s">
         <v>21</v>
       </c>
@@ -12439,7 +12558,7 @@
         <v>6.3629999999999995</v>
       </c>
     </row>
-    <row r="126" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="19" t="s">
         <v>21</v>
       </c>
@@ -12535,7 +12654,7 @@
         <v>8.4735000000000014</v>
       </c>
     </row>
-    <row r="127" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19" t="s">
         <v>21</v>
       </c>
@@ -12631,7 +12750,7 @@
         <v>8.4735000000000014</v>
       </c>
     </row>
-    <row r="128" spans="1:28" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:41" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="19" t="s">
         <v>21</v>
       </c>
@@ -12726,8 +12845,20 @@
         <f t="shared" si="89"/>
         <v>9.4500000000000011</v>
       </c>
-    </row>
-    <row r="129" spans="1:28" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+      <c r="AF128" s="1"/>
+      <c r="AG128" s="1"/>
+      <c r="AH128" s="1"/>
+      <c r="AI128" s="1"/>
+      <c r="AJ128" s="1"/>
+      <c r="AK128" s="1"/>
+      <c r="AL128" s="1"/>
+      <c r="AM128" s="1"/>
+      <c r="AN128" s="1"/>
+      <c r="AO128" s="1"/>
+    </row>
+    <row r="129" spans="1:41" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19" t="s">
         <v>21</v>
       </c>
@@ -12822,8 +12953,20 @@
         <f t="shared" si="89"/>
         <v>9.4500000000000011</v>
       </c>
-    </row>
-    <row r="130" spans="1:28" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD129" s="1"/>
+      <c r="AE129" s="1"/>
+      <c r="AF129" s="1"/>
+      <c r="AG129" s="1"/>
+      <c r="AH129" s="1"/>
+      <c r="AI129" s="1"/>
+      <c r="AJ129" s="1"/>
+      <c r="AK129" s="1"/>
+      <c r="AL129" s="1"/>
+      <c r="AM129" s="1"/>
+      <c r="AN129" s="1"/>
+      <c r="AO129" s="1"/>
+    </row>
+    <row r="130" spans="1:41" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
         <v>21</v>
       </c>
@@ -12918,8 +13061,20 @@
         <f t="shared" si="89"/>
         <v>8.4735000000000014</v>
       </c>
-    </row>
-    <row r="131" spans="1:28" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD130" s="1"/>
+      <c r="AE130" s="1"/>
+      <c r="AF130" s="1"/>
+      <c r="AG130" s="1"/>
+      <c r="AH130" s="1"/>
+      <c r="AI130" s="1"/>
+      <c r="AJ130" s="1"/>
+      <c r="AK130" s="1"/>
+      <c r="AL130" s="1"/>
+      <c r="AM130" s="1"/>
+      <c r="AN130" s="1"/>
+      <c r="AO130" s="1"/>
+    </row>
+    <row r="131" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
         <v>21</v>
       </c>
@@ -13016,8 +13171,20 @@
         <f t="shared" ref="AB131:AB136" si="101">Z131*1.25</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="132" spans="1:28" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD131" s="1"/>
+      <c r="AE131" s="1"/>
+      <c r="AF131" s="1"/>
+      <c r="AG131" s="1"/>
+      <c r="AH131" s="1"/>
+      <c r="AI131" s="1"/>
+      <c r="AJ131" s="1"/>
+      <c r="AK131" s="1"/>
+      <c r="AL131" s="1"/>
+      <c r="AM131" s="1"/>
+      <c r="AN131" s="1"/>
+      <c r="AO131" s="1"/>
+    </row>
+    <row r="132" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="19" t="s">
         <v>21</v>
       </c>
@@ -13114,8 +13281,20 @@
         <f t="shared" si="101"/>
         <v>122.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:28" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD132" s="1"/>
+      <c r="AE132" s="1"/>
+      <c r="AF132" s="1"/>
+      <c r="AG132" s="1"/>
+      <c r="AH132" s="1"/>
+      <c r="AI132" s="1"/>
+      <c r="AJ132" s="1"/>
+      <c r="AK132" s="1"/>
+      <c r="AL132" s="1"/>
+      <c r="AM132" s="1"/>
+      <c r="AN132" s="1"/>
+      <c r="AO132" s="1"/>
+    </row>
+    <row r="133" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19" t="s">
         <v>21</v>
       </c>
@@ -13212,8 +13391,20 @@
         <f t="shared" si="101"/>
         <v>147.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:28" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD133" s="1"/>
+      <c r="AE133" s="1"/>
+      <c r="AF133" s="1"/>
+      <c r="AG133" s="1"/>
+      <c r="AH133" s="1"/>
+      <c r="AI133" s="1"/>
+      <c r="AJ133" s="1"/>
+      <c r="AK133" s="1"/>
+      <c r="AL133" s="1"/>
+      <c r="AM133" s="1"/>
+      <c r="AN133" s="1"/>
+      <c r="AO133" s="1"/>
+    </row>
+    <row r="134" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="19" t="s">
         <v>21</v>
       </c>
@@ -13310,8 +13501,20 @@
         <f t="shared" si="101"/>
         <v>137.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:28" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD134" s="1"/>
+      <c r="AE134" s="1"/>
+      <c r="AF134" s="1"/>
+      <c r="AG134" s="1"/>
+      <c r="AH134" s="1"/>
+      <c r="AI134" s="1"/>
+      <c r="AJ134" s="1"/>
+      <c r="AK134" s="1"/>
+      <c r="AL134" s="1"/>
+      <c r="AM134" s="1"/>
+      <c r="AN134" s="1"/>
+      <c r="AO134" s="1"/>
+    </row>
+    <row r="135" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19" t="s">
         <v>21</v>
       </c>
@@ -13408,8 +13611,20 @@
         <f t="shared" si="101"/>
         <v>191.25</v>
       </c>
-    </row>
-    <row r="136" spans="1:28" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD135" s="1"/>
+      <c r="AE135" s="1"/>
+      <c r="AF135" s="1"/>
+      <c r="AG135" s="1"/>
+      <c r="AH135" s="1"/>
+      <c r="AI135" s="1"/>
+      <c r="AJ135" s="1"/>
+      <c r="AK135" s="1"/>
+      <c r="AL135" s="1"/>
+      <c r="AM135" s="1"/>
+      <c r="AN135" s="1"/>
+      <c r="AO135" s="1"/>
+    </row>
+    <row r="136" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="19" t="s">
         <v>21</v>
       </c>
@@ -13506,8 +13721,20 @@
         <f t="shared" si="101"/>
         <v>177.5</v>
       </c>
-    </row>
-    <row r="137" spans="1:28" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD136" s="1"/>
+      <c r="AE136" s="1"/>
+      <c r="AF136" s="1"/>
+      <c r="AG136" s="1"/>
+      <c r="AH136" s="1"/>
+      <c r="AI136" s="1"/>
+      <c r="AJ136" s="1"/>
+      <c r="AK136" s="1"/>
+      <c r="AL136" s="1"/>
+      <c r="AM136" s="1"/>
+      <c r="AN136" s="1"/>
+      <c r="AO136" s="1"/>
+    </row>
+    <row r="137" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>22</v>
       </c>
@@ -13607,8 +13834,20 @@
         <f t="shared" si="103"/>
         <v>3.0008124999999994</v>
       </c>
-    </row>
-    <row r="138" spans="1:28" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD137" s="1"/>
+      <c r="AE137" s="1"/>
+      <c r="AF137" s="1"/>
+      <c r="AG137" s="1"/>
+      <c r="AH137" s="1"/>
+      <c r="AI137" s="1"/>
+      <c r="AJ137" s="1"/>
+      <c r="AK137" s="1"/>
+      <c r="AL137" s="1"/>
+      <c r="AM137" s="1"/>
+      <c r="AN137" s="1"/>
+      <c r="AO137" s="1"/>
+    </row>
+    <row r="138" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>22</v>
       </c>
@@ -13708,8 +13947,20 @@
         <f t="shared" si="103"/>
         <v>3.0008124999999994</v>
       </c>
-    </row>
-    <row r="139" spans="1:28" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD138" s="1"/>
+      <c r="AE138" s="1"/>
+      <c r="AF138" s="1"/>
+      <c r="AG138" s="1"/>
+      <c r="AH138" s="1"/>
+      <c r="AI138" s="1"/>
+      <c r="AJ138" s="1"/>
+      <c r="AK138" s="1"/>
+      <c r="AL138" s="1"/>
+      <c r="AM138" s="1"/>
+      <c r="AN138" s="1"/>
+      <c r="AO138" s="1"/>
+    </row>
+    <row r="139" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>22</v>
       </c>
@@ -13770,8 +14021,20 @@
       </c>
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
-    </row>
-    <row r="140" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD139" s="1"/>
+      <c r="AE139" s="1"/>
+      <c r="AF139" s="1"/>
+      <c r="AG139" s="1"/>
+      <c r="AH139" s="1"/>
+      <c r="AI139" s="1"/>
+      <c r="AJ139" s="1"/>
+      <c r="AK139" s="1"/>
+      <c r="AL139" s="1"/>
+      <c r="AM139" s="1"/>
+      <c r="AN139" s="1"/>
+      <c r="AO139" s="1"/>
+    </row>
+    <row r="140" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>22</v>
       </c>
@@ -13833,7 +14096,7 @@
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
     </row>
-    <row r="141" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>22</v>
       </c>
@@ -13929,7 +14192,7 @@
         <v>0.97650000000000015</v>
       </c>
     </row>
-    <row r="142" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>22</v>
       </c>
@@ -14021,7 +14284,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="143" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>186</v>
       </c>
@@ -14099,7 +14362,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="144" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>186</v>
       </c>
@@ -16357,7 +16620,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="172" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>24</v>
       </c>
@@ -16439,7 +16702,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="173" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>24</v>
       </c>
@@ -16525,7 +16788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>24</v>
       </c>
@@ -16611,7 +16874,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>22</v>
       </c>
@@ -16700,16 +16963,10 @@
       <c r="Z175" s="5">
         <v>0</v>
       </c>
-      <c r="AA175" s="5">
-        <f t="shared" ref="AA175:AA179" si="124">Z175*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="AB175" s="5">
-        <f t="shared" ref="AB175:AB179" si="125">Z175*1.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AA175" s="5"/>
+      <c r="AB175" s="5"/>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>22</v>
       </c>
@@ -16755,11 +17012,11 @@
         <v>0.05</v>
       </c>
       <c r="O176" s="5">
-        <f t="shared" ref="O176:O179" si="126">N176*0.9</f>
+        <f t="shared" ref="O176:O179" si="124">N176*0.9</f>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="P176" s="5">
-        <f t="shared" ref="P176:P179" si="127">N176*1.1</f>
+        <f t="shared" ref="P176:P179" si="125">N176*1.1</f>
         <v>5.5000000000000007E-2</v>
       </c>
       <c r="Q176" s="5">
@@ -16798,16 +17055,10 @@
       <c r="Z176" s="5">
         <v>0</v>
       </c>
-      <c r="AA176" s="5">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AB176" s="5">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AA176" s="5"/>
+      <c r="AB176" s="5"/>
+    </row>
+    <row r="177" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>22</v>
       </c>
@@ -16853,11 +17104,11 @@
         <v>0.01</v>
       </c>
       <c r="O177" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="P177" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="Q177" s="5">
@@ -16896,16 +17147,10 @@
       <c r="Z177" s="5">
         <v>0</v>
       </c>
-      <c r="AA177" s="5">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AB177" s="5">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AA177" s="5"/>
+      <c r="AB177" s="5"/>
+    </row>
+    <row r="178" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>22</v>
       </c>
@@ -16951,11 +17196,11 @@
         <v>0.25</v>
       </c>
       <c r="O178" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="P178" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="Q178" s="5">
@@ -16994,16 +17239,10 @@
       <c r="Z178" s="5">
         <v>0</v>
       </c>
-      <c r="AA178" s="5">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AB178" s="5">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AA178" s="5"/>
+      <c r="AB178" s="5"/>
+    </row>
+    <row r="179" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>22</v>
       </c>
@@ -17049,11 +17288,11 @@
         <v>0.25</v>
       </c>
       <c r="O179" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="P179" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="Q179" s="5">
@@ -17092,16 +17331,10 @@
       <c r="Z179" s="5">
         <v>0</v>
       </c>
-      <c r="AA179" s="5">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AB179" s="5">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:28" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AA179" s="5"/>
+      <c r="AB179" s="5"/>
+    </row>
+    <row r="180" spans="1:41" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>29</v>
       </c>
@@ -17160,8 +17393,20 @@
       </c>
       <c r="AA180" s="9"/>
       <c r="AB180" s="9"/>
-    </row>
-    <row r="181" spans="1:28" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD180" s="1"/>
+      <c r="AE180" s="1"/>
+      <c r="AF180" s="1"/>
+      <c r="AG180" s="1"/>
+      <c r="AH180" s="1"/>
+      <c r="AI180" s="1"/>
+      <c r="AJ180" s="1"/>
+      <c r="AK180" s="1"/>
+      <c r="AL180" s="1"/>
+      <c r="AM180" s="1"/>
+      <c r="AN180" s="1"/>
+      <c r="AO180" s="1"/>
+    </row>
+    <row r="181" spans="1:41" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>22</v>
       </c>
@@ -17193,27 +17438,27 @@
         <v>50</v>
       </c>
       <c r="K181" s="4">
-        <f t="shared" ref="K181:P181" si="128">N181*1.05</f>
+        <f t="shared" ref="K181:P181" si="126">N181*1.05</f>
         <v>39.690000000000005</v>
       </c>
       <c r="L181" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>33.075000000000003</v>
       </c>
       <c r="M181" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>44.1</v>
       </c>
       <c r="N181" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>37.800000000000004</v>
       </c>
       <c r="O181" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>31.5</v>
       </c>
       <c r="P181" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>42</v>
       </c>
       <c r="Q181" s="5">
@@ -17258,8 +17503,20 @@
         <f>Y181*0.95</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="182" spans="1:28" s="21" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD181" s="1"/>
+      <c r="AE181" s="1"/>
+      <c r="AF181" s="1"/>
+      <c r="AG181" s="1"/>
+      <c r="AH181" s="1"/>
+      <c r="AI181" s="1"/>
+      <c r="AJ181" s="1"/>
+      <c r="AK181" s="1"/>
+      <c r="AL181" s="1"/>
+      <c r="AM181" s="1"/>
+      <c r="AN181" s="1"/>
+      <c r="AO181" s="1"/>
+    </row>
+    <row r="182" spans="1:41" s="21" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>24</v>
       </c>
@@ -17344,8 +17601,20 @@
       <c r="AB182" s="5">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="183" spans="1:28" s="21" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD182" s="1"/>
+      <c r="AE182" s="1"/>
+      <c r="AF182" s="1"/>
+      <c r="AG182" s="1"/>
+      <c r="AH182" s="1"/>
+      <c r="AI182" s="1"/>
+      <c r="AJ182" s="1"/>
+      <c r="AK182" s="1"/>
+      <c r="AL182" s="1"/>
+      <c r="AM182" s="1"/>
+      <c r="AN182" s="1"/>
+      <c r="AO182" s="1"/>
+    </row>
+    <row r="183" spans="1:41" s="21" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>24</v>
       </c>
@@ -17430,8 +17699,20 @@
       <c r="AB183" s="5">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="184" spans="1:28" s="21" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD183" s="1"/>
+      <c r="AE183" s="1"/>
+      <c r="AF183" s="1"/>
+      <c r="AG183" s="1"/>
+      <c r="AH183" s="1"/>
+      <c r="AI183" s="1"/>
+      <c r="AJ183" s="1"/>
+      <c r="AK183" s="1"/>
+      <c r="AL183" s="1"/>
+      <c r="AM183" s="1"/>
+      <c r="AN183" s="1"/>
+      <c r="AO183" s="1"/>
+    </row>
+    <row r="184" spans="1:41" s="21" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>24</v>
       </c>
@@ -17492,8 +17773,20 @@
       </c>
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
-    </row>
-    <row r="185" spans="1:28" s="21" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD184" s="1"/>
+      <c r="AE184" s="1"/>
+      <c r="AF184" s="1"/>
+      <c r="AG184" s="1"/>
+      <c r="AH184" s="1"/>
+      <c r="AI184" s="1"/>
+      <c r="AJ184" s="1"/>
+      <c r="AK184" s="1"/>
+      <c r="AL184" s="1"/>
+      <c r="AM184" s="1"/>
+      <c r="AN184" s="1"/>
+      <c r="AO184" s="1"/>
+    </row>
+    <row r="185" spans="1:41" s="21" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="19" t="s">
         <v>21</v>
       </c>
@@ -17528,70 +17821,82 @@
         <v>149</v>
       </c>
       <c r="L185" s="29">
-        <f t="shared" ref="L185:L190" si="129">K185*0.75</f>
+        <f t="shared" ref="L185:L190" si="127">K185*0.75</f>
         <v>111.75</v>
       </c>
       <c r="M185" s="29">
-        <f t="shared" ref="M185:M190" si="130">K185*1.25</f>
+        <f t="shared" ref="M185:M190" si="128">K185*1.25</f>
         <v>186.25</v>
       </c>
       <c r="N185" s="29">
         <v>149</v>
       </c>
       <c r="O185" s="29">
-        <f t="shared" ref="O185:O190" si="131">N185*0.75</f>
+        <f t="shared" ref="O185:O190" si="129">N185*0.75</f>
         <v>111.75</v>
       </c>
       <c r="P185" s="29">
-        <f t="shared" ref="P185:P190" si="132">N185*1.25</f>
+        <f t="shared" ref="P185:P190" si="130">N185*1.25</f>
         <v>186.25</v>
       </c>
       <c r="Q185" s="29">
         <v>149</v>
       </c>
       <c r="R185" s="29">
-        <f t="shared" ref="R185:R190" si="133">Q185*0.75</f>
+        <f t="shared" ref="R185:R190" si="131">Q185*0.75</f>
         <v>111.75</v>
       </c>
       <c r="S185" s="29">
-        <f t="shared" ref="S185:S190" si="134">Q185*1.25</f>
+        <f t="shared" ref="S185:S190" si="132">Q185*1.25</f>
         <v>186.25</v>
       </c>
       <c r="T185" s="29">
         <v>149</v>
       </c>
       <c r="U185" s="29">
-        <f t="shared" ref="U185:U190" si="135">T185*0.75</f>
+        <f t="shared" ref="U185:U190" si="133">T185*0.75</f>
         <v>111.75</v>
       </c>
       <c r="V185" s="29">
-        <f t="shared" ref="V185:V190" si="136">T185*1.25</f>
+        <f t="shared" ref="V185:V190" si="134">T185*1.25</f>
         <v>186.25</v>
       </c>
       <c r="W185" s="29">
         <v>149</v>
       </c>
       <c r="X185" s="29">
-        <f t="shared" ref="X185:X190" si="137">W185*0.75</f>
+        <f t="shared" ref="X185:X190" si="135">W185*0.75</f>
         <v>111.75</v>
       </c>
       <c r="Y185" s="29">
-        <f t="shared" ref="Y185:Y190" si="138">W185*1.25</f>
+        <f t="shared" ref="Y185:Y190" si="136">W185*1.25</f>
         <v>186.25</v>
       </c>
       <c r="Z185" s="29">
         <v>149</v>
       </c>
       <c r="AA185" s="29">
-        <f t="shared" ref="AA185:AA190" si="139">Z185*0.75</f>
+        <f t="shared" ref="AA185:AA190" si="137">Z185*0.75</f>
         <v>111.75</v>
       </c>
       <c r="AB185" s="29">
-        <f t="shared" ref="AB185:AB190" si="140">Z185*1.25</f>
+        <f t="shared" ref="AB185:AB190" si="138">Z185*1.25</f>
         <v>186.25</v>
       </c>
-    </row>
-    <row r="186" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD185" s="1"/>
+      <c r="AE185" s="1"/>
+      <c r="AF185" s="1"/>
+      <c r="AG185" s="1"/>
+      <c r="AH185" s="1"/>
+      <c r="AI185" s="1"/>
+      <c r="AJ185" s="1"/>
+      <c r="AK185" s="1"/>
+      <c r="AL185" s="1"/>
+      <c r="AM185" s="1"/>
+      <c r="AN185" s="1"/>
+      <c r="AO185" s="1"/>
+    </row>
+    <row r="186" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="19" t="s">
         <v>21</v>
       </c>
@@ -17626,70 +17931,70 @@
         <v>272</v>
       </c>
       <c r="L186" s="29">
+        <f t="shared" si="127"/>
+        <v>204</v>
+      </c>
+      <c r="M186" s="29">
+        <f t="shared" si="128"/>
+        <v>340</v>
+      </c>
+      <c r="N186" s="29">
+        <v>272</v>
+      </c>
+      <c r="O186" s="29">
         <f t="shared" si="129"/>
         <v>204</v>
       </c>
-      <c r="M186" s="29">
+      <c r="P186" s="29">
         <f t="shared" si="130"/>
         <v>340</v>
       </c>
-      <c r="N186" s="29">
+      <c r="Q186" s="29">
         <v>272</v>
       </c>
-      <c r="O186" s="29">
+      <c r="R186" s="29">
         <f t="shared" si="131"/>
         <v>204</v>
       </c>
-      <c r="P186" s="29">
+      <c r="S186" s="29">
         <f t="shared" si="132"/>
         <v>340</v>
       </c>
-      <c r="Q186" s="29">
+      <c r="T186" s="29">
         <v>272</v>
       </c>
-      <c r="R186" s="29">
+      <c r="U186" s="29">
         <f t="shared" si="133"/>
         <v>204</v>
       </c>
-      <c r="S186" s="29">
+      <c r="V186" s="29">
         <f t="shared" si="134"/>
         <v>340</v>
       </c>
-      <c r="T186" s="29">
+      <c r="W186" s="29">
         <v>272</v>
       </c>
-      <c r="U186" s="29">
+      <c r="X186" s="29">
         <f t="shared" si="135"/>
         <v>204</v>
       </c>
-      <c r="V186" s="29">
+      <c r="Y186" s="29">
         <f t="shared" si="136"/>
         <v>340</v>
       </c>
-      <c r="W186" s="29">
+      <c r="Z186" s="29">
         <v>272</v>
       </c>
-      <c r="X186" s="29">
+      <c r="AA186" s="29">
         <f t="shared" si="137"/>
         <v>204</v>
       </c>
-      <c r="Y186" s="29">
+      <c r="AB186" s="29">
         <f t="shared" si="138"/>
         <v>340</v>
       </c>
-      <c r="Z186" s="29">
-        <v>272</v>
-      </c>
-      <c r="AA186" s="29">
-        <f t="shared" si="139"/>
-        <v>204</v>
-      </c>
-      <c r="AB186" s="29">
-        <f t="shared" si="140"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="187" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="19" t="s">
         <v>21</v>
       </c>
@@ -17724,70 +18029,70 @@
         <v>328</v>
       </c>
       <c r="L187" s="29">
+        <f t="shared" si="127"/>
+        <v>246</v>
+      </c>
+      <c r="M187" s="29">
+        <f t="shared" si="128"/>
+        <v>410</v>
+      </c>
+      <c r="N187" s="29">
+        <v>328</v>
+      </c>
+      <c r="O187" s="29">
         <f t="shared" si="129"/>
         <v>246</v>
       </c>
-      <c r="M187" s="29">
+      <c r="P187" s="29">
         <f t="shared" si="130"/>
         <v>410</v>
       </c>
-      <c r="N187" s="29">
+      <c r="Q187" s="29">
         <v>328</v>
       </c>
-      <c r="O187" s="29">
+      <c r="R187" s="29">
         <f t="shared" si="131"/>
         <v>246</v>
       </c>
-      <c r="P187" s="29">
+      <c r="S187" s="29">
         <f t="shared" si="132"/>
         <v>410</v>
       </c>
-      <c r="Q187" s="29">
+      <c r="T187" s="29">
         <v>328</v>
       </c>
-      <c r="R187" s="29">
+      <c r="U187" s="29">
         <f t="shared" si="133"/>
         <v>246</v>
       </c>
-      <c r="S187" s="29">
+      <c r="V187" s="29">
         <f t="shared" si="134"/>
         <v>410</v>
       </c>
-      <c r="T187" s="29">
+      <c r="W187" s="29">
         <v>328</v>
       </c>
-      <c r="U187" s="29">
+      <c r="X187" s="29">
         <f t="shared" si="135"/>
         <v>246</v>
       </c>
-      <c r="V187" s="29">
+      <c r="Y187" s="29">
         <f t="shared" si="136"/>
         <v>410</v>
       </c>
-      <c r="W187" s="29">
+      <c r="Z187" s="29">
         <v>328</v>
       </c>
-      <c r="X187" s="29">
+      <c r="AA187" s="29">
         <f t="shared" si="137"/>
         <v>246</v>
       </c>
-      <c r="Y187" s="29">
+      <c r="AB187" s="29">
         <f t="shared" si="138"/>
         <v>410</v>
       </c>
-      <c r="Z187" s="29">
-        <v>328</v>
-      </c>
-      <c r="AA187" s="29">
-        <f t="shared" si="139"/>
-        <v>246</v>
-      </c>
-      <c r="AB187" s="29">
-        <f t="shared" si="140"/>
-        <v>410</v>
-      </c>
-    </row>
-    <row r="188" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="19" t="s">
         <v>21</v>
       </c>
@@ -17822,70 +18127,70 @@
         <v>305</v>
       </c>
       <c r="L188" s="29">
+        <f t="shared" si="127"/>
+        <v>228.75</v>
+      </c>
+      <c r="M188" s="29">
+        <f t="shared" si="128"/>
+        <v>381.25</v>
+      </c>
+      <c r="N188" s="29">
+        <v>305</v>
+      </c>
+      <c r="O188" s="29">
         <f t="shared" si="129"/>
         <v>228.75</v>
       </c>
-      <c r="M188" s="29">
+      <c r="P188" s="29">
         <f t="shared" si="130"/>
         <v>381.25</v>
       </c>
-      <c r="N188" s="29">
+      <c r="Q188" s="29">
         <v>305</v>
       </c>
-      <c r="O188" s="29">
+      <c r="R188" s="29">
         <f t="shared" si="131"/>
         <v>228.75</v>
       </c>
-      <c r="P188" s="29">
+      <c r="S188" s="29">
         <f t="shared" si="132"/>
         <v>381.25</v>
       </c>
-      <c r="Q188" s="29">
+      <c r="T188" s="29">
         <v>305</v>
       </c>
-      <c r="R188" s="29">
+      <c r="U188" s="29">
         <f t="shared" si="133"/>
         <v>228.75</v>
       </c>
-      <c r="S188" s="29">
+      <c r="V188" s="29">
         <f t="shared" si="134"/>
         <v>381.25</v>
       </c>
-      <c r="T188" s="29">
+      <c r="W188" s="29">
         <v>305</v>
       </c>
-      <c r="U188" s="29">
+      <c r="X188" s="29">
         <f t="shared" si="135"/>
         <v>228.75</v>
       </c>
-      <c r="V188" s="29">
+      <c r="Y188" s="29">
         <f t="shared" si="136"/>
         <v>381.25</v>
       </c>
-      <c r="W188" s="29">
+      <c r="Z188" s="29">
         <v>305</v>
       </c>
-      <c r="X188" s="29">
+      <c r="AA188" s="29">
         <f t="shared" si="137"/>
         <v>228.75</v>
       </c>
-      <c r="Y188" s="29">
+      <c r="AB188" s="29">
         <f t="shared" si="138"/>
         <v>381.25</v>
       </c>
-      <c r="Z188" s="29">
-        <v>305</v>
-      </c>
-      <c r="AA188" s="29">
-        <f t="shared" si="139"/>
-        <v>228.75</v>
-      </c>
-      <c r="AB188" s="29">
-        <f t="shared" si="140"/>
-        <v>381.25</v>
-      </c>
-    </row>
-    <row r="189" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="19" t="s">
         <v>21</v>
       </c>
@@ -17920,70 +18225,70 @@
         <v>426</v>
       </c>
       <c r="L189" s="29">
+        <f t="shared" si="127"/>
+        <v>319.5</v>
+      </c>
+      <c r="M189" s="29">
+        <f t="shared" si="128"/>
+        <v>532.5</v>
+      </c>
+      <c r="N189" s="29">
+        <v>426</v>
+      </c>
+      <c r="O189" s="29">
         <f t="shared" si="129"/>
         <v>319.5</v>
       </c>
-      <c r="M189" s="29">
+      <c r="P189" s="29">
         <f t="shared" si="130"/>
         <v>532.5</v>
       </c>
-      <c r="N189" s="29">
+      <c r="Q189" s="29">
         <v>426</v>
       </c>
-      <c r="O189" s="29">
+      <c r="R189" s="29">
         <f t="shared" si="131"/>
         <v>319.5</v>
       </c>
-      <c r="P189" s="29">
+      <c r="S189" s="29">
         <f t="shared" si="132"/>
         <v>532.5</v>
       </c>
-      <c r="Q189" s="29">
+      <c r="T189" s="29">
         <v>426</v>
       </c>
-      <c r="R189" s="29">
+      <c r="U189" s="29">
         <f t="shared" si="133"/>
         <v>319.5</v>
       </c>
-      <c r="S189" s="29">
+      <c r="V189" s="29">
         <f t="shared" si="134"/>
         <v>532.5</v>
       </c>
-      <c r="T189" s="29">
+      <c r="W189" s="29">
         <v>426</v>
       </c>
-      <c r="U189" s="29">
+      <c r="X189" s="29">
         <f t="shared" si="135"/>
         <v>319.5</v>
       </c>
-      <c r="V189" s="29">
+      <c r="Y189" s="29">
         <f t="shared" si="136"/>
         <v>532.5</v>
       </c>
-      <c r="W189" s="29">
+      <c r="Z189" s="29">
         <v>426</v>
       </c>
-      <c r="X189" s="29">
+      <c r="AA189" s="29">
         <f t="shared" si="137"/>
         <v>319.5</v>
       </c>
-      <c r="Y189" s="29">
+      <c r="AB189" s="29">
         <f t="shared" si="138"/>
         <v>532.5</v>
       </c>
-      <c r="Z189" s="29">
-        <v>426</v>
-      </c>
-      <c r="AA189" s="29">
-        <f t="shared" si="139"/>
-        <v>319.5</v>
-      </c>
-      <c r="AB189" s="29">
-        <f t="shared" si="140"/>
-        <v>532.5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="19" t="s">
         <v>21</v>
       </c>
@@ -18018,70 +18323,70 @@
         <v>393</v>
       </c>
       <c r="L190" s="29">
+        <f t="shared" si="127"/>
+        <v>294.75</v>
+      </c>
+      <c r="M190" s="29">
+        <f t="shared" si="128"/>
+        <v>491.25</v>
+      </c>
+      <c r="N190" s="29">
+        <v>393</v>
+      </c>
+      <c r="O190" s="29">
         <f t="shared" si="129"/>
         <v>294.75</v>
       </c>
-      <c r="M190" s="29">
+      <c r="P190" s="29">
         <f t="shared" si="130"/>
         <v>491.25</v>
       </c>
-      <c r="N190" s="29">
+      <c r="Q190" s="29">
         <v>393</v>
       </c>
-      <c r="O190" s="29">
+      <c r="R190" s="29">
         <f t="shared" si="131"/>
         <v>294.75</v>
       </c>
-      <c r="P190" s="29">
+      <c r="S190" s="29">
         <f t="shared" si="132"/>
         <v>491.25</v>
       </c>
-      <c r="Q190" s="29">
+      <c r="T190" s="29">
         <v>393</v>
       </c>
-      <c r="R190" s="29">
+      <c r="U190" s="29">
         <f t="shared" si="133"/>
         <v>294.75</v>
       </c>
-      <c r="S190" s="29">
+      <c r="V190" s="29">
         <f t="shared" si="134"/>
         <v>491.25</v>
       </c>
-      <c r="T190" s="29">
+      <c r="W190" s="29">
         <v>393</v>
       </c>
-      <c r="U190" s="29">
+      <c r="X190" s="29">
         <f t="shared" si="135"/>
         <v>294.75</v>
       </c>
-      <c r="V190" s="29">
+      <c r="Y190" s="29">
         <f t="shared" si="136"/>
         <v>491.25</v>
       </c>
-      <c r="W190" s="29">
+      <c r="Z190" s="29">
         <v>393</v>
       </c>
-      <c r="X190" s="29">
+      <c r="AA190" s="29">
         <f t="shared" si="137"/>
         <v>294.75</v>
       </c>
-      <c r="Y190" s="29">
+      <c r="AB190" s="29">
         <f t="shared" si="138"/>
         <v>491.25</v>
       </c>
-      <c r="Z190" s="29">
-        <v>393</v>
-      </c>
-      <c r="AA190" s="29">
-        <f t="shared" si="139"/>
-        <v>294.75</v>
-      </c>
-      <c r="AB190" s="29">
-        <f t="shared" si="140"/>
-        <v>491.25</v>
-      </c>
-    </row>
-    <row r="191" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>186</v>
       </c>
@@ -18159,7 +18464,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>23</v>
       </c>
@@ -18257,7 +18562,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="193" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>24</v>
       </c>
@@ -18343,7 +18648,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>24</v>
       </c>
@@ -18441,7 +18746,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>24</v>
       </c>
@@ -18539,7 +18844,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="196" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>24</v>
       </c>
@@ -18631,7 +18936,7 @@
         <v>0.94760000000000011</v>
       </c>
     </row>
-    <row r="197" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>24</v>
       </c>
@@ -18693,7 +18998,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>24</v>
       </c>
@@ -18789,7 +19094,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>24</v>
       </c>
@@ -18885,7 +19190,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>24</v>
       </c>
@@ -18981,7 +19286,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>24</v>
       </c>
@@ -19077,7 +19382,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="202" spans="1:30" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>23</v>
       </c>
@@ -19175,8 +19480,19 @@
         <v>3437.5</v>
       </c>
       <c r="AD202" s="1"/>
-    </row>
-    <row r="203" spans="1:30" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE202" s="1"/>
+      <c r="AF202" s="1"/>
+      <c r="AG202" s="1"/>
+      <c r="AH202" s="1"/>
+      <c r="AI202" s="1"/>
+      <c r="AJ202" s="1"/>
+      <c r="AK202" s="1"/>
+      <c r="AL202" s="1"/>
+      <c r="AM202" s="1"/>
+      <c r="AN202" s="1"/>
+      <c r="AO202" s="1"/>
+    </row>
+    <row r="203" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>24</v>
       </c>
@@ -19268,8 +19584,19 @@
         <v>0.85</v>
       </c>
       <c r="AD203" s="1"/>
-    </row>
-    <row r="204" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE203" s="1"/>
+      <c r="AF203" s="1"/>
+      <c r="AG203" s="1"/>
+      <c r="AH203" s="1"/>
+      <c r="AI203" s="1"/>
+      <c r="AJ203" s="1"/>
+      <c r="AK203" s="1"/>
+      <c r="AL203" s="1"/>
+      <c r="AM203" s="1"/>
+      <c r="AN203" s="1"/>
+      <c r="AO203" s="1"/>
+    </row>
+    <row r="204" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>24</v>
       </c>
@@ -19361,8 +19688,19 @@
         <v>0.92700000000000005</v>
       </c>
       <c r="AD204" s="1"/>
-    </row>
-    <row r="205" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE204" s="1"/>
+      <c r="AF204" s="1"/>
+      <c r="AG204" s="1"/>
+      <c r="AH204" s="1"/>
+      <c r="AI204" s="1"/>
+      <c r="AJ204" s="1"/>
+      <c r="AK204" s="1"/>
+      <c r="AL204" s="1"/>
+      <c r="AM204" s="1"/>
+      <c r="AN204" s="1"/>
+      <c r="AO204" s="1"/>
+    </row>
+    <row r="205" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>24</v>
       </c>
@@ -19454,8 +19792,19 @@
         <v>0.92700000000000005</v>
       </c>
       <c r="AD205" s="1"/>
-    </row>
-    <row r="206" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE205" s="1"/>
+      <c r="AF205" s="1"/>
+      <c r="AG205" s="1"/>
+      <c r="AH205" s="1"/>
+      <c r="AI205" s="1"/>
+      <c r="AJ205" s="1"/>
+      <c r="AK205" s="1"/>
+      <c r="AL205" s="1"/>
+      <c r="AM205" s="1"/>
+      <c r="AN205" s="1"/>
+      <c r="AO205" s="1"/>
+    </row>
+    <row r="206" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>24</v>
       </c>
@@ -19541,8 +19890,19 @@
         <v>0.9</v>
       </c>
       <c r="AD206" s="1"/>
-    </row>
-    <row r="207" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE206" s="1"/>
+      <c r="AF206" s="1"/>
+      <c r="AG206" s="1"/>
+      <c r="AH206" s="1"/>
+      <c r="AI206" s="1"/>
+      <c r="AJ206" s="1"/>
+      <c r="AK206" s="1"/>
+      <c r="AL206" s="1"/>
+      <c r="AM206" s="1"/>
+      <c r="AN206" s="1"/>
+      <c r="AO206" s="1"/>
+    </row>
+    <row r="207" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>24</v>
       </c>
@@ -19628,8 +19988,19 @@
         <v>0.9</v>
       </c>
       <c r="AD207" s="1"/>
-    </row>
-    <row r="208" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE207" s="1"/>
+      <c r="AF207" s="1"/>
+      <c r="AG207" s="1"/>
+      <c r="AH207" s="1"/>
+      <c r="AI207" s="1"/>
+      <c r="AJ207" s="1"/>
+      <c r="AK207" s="1"/>
+      <c r="AL207" s="1"/>
+      <c r="AM207" s="1"/>
+      <c r="AN207" s="1"/>
+      <c r="AO207" s="1"/>
+    </row>
+    <row r="208" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>24</v>
       </c>
@@ -19715,8 +20086,19 @@
         <v>10</v>
       </c>
       <c r="AD208" s="1"/>
-    </row>
-    <row r="209" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE208" s="1"/>
+      <c r="AF208" s="1"/>
+      <c r="AG208" s="1"/>
+      <c r="AH208" s="1"/>
+      <c r="AI208" s="1"/>
+      <c r="AJ208" s="1"/>
+      <c r="AK208" s="1"/>
+      <c r="AL208" s="1"/>
+      <c r="AM208" s="1"/>
+      <c r="AN208" s="1"/>
+      <c r="AO208" s="1"/>
+    </row>
+    <row r="209" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>24</v>
       </c>
@@ -19802,8 +20184,19 @@
         <v>10</v>
       </c>
       <c r="AD209" s="1"/>
-    </row>
-    <row r="210" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE209" s="1"/>
+      <c r="AF209" s="1"/>
+      <c r="AG209" s="1"/>
+      <c r="AH209" s="1"/>
+      <c r="AI209" s="1"/>
+      <c r="AJ209" s="1"/>
+      <c r="AK209" s="1"/>
+      <c r="AL209" s="1"/>
+      <c r="AM209" s="1"/>
+      <c r="AN209" s="1"/>
+      <c r="AO209" s="1"/>
+    </row>
+    <row r="210" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>24</v>
       </c>
@@ -19871,32 +20264,43 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W210" s="5">
-        <f t="shared" ref="W210:AB210" si="141">Q210*1.5</f>
+        <f t="shared" ref="W210:AB210" si="139">Q210*1.5</f>
         <v>3</v>
       </c>
       <c r="X210" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="139"/>
         <v>1.9500000000000002</v>
       </c>
       <c r="Y210" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="139"/>
         <v>3.4499999999999997</v>
       </c>
       <c r="Z210" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="139"/>
         <v>3</v>
       </c>
       <c r="AA210" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="139"/>
         <v>1.9500000000000002</v>
       </c>
       <c r="AB210" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="139"/>
         <v>3.4499999999999997</v>
       </c>
       <c r="AD210" s="1"/>
-    </row>
-    <row r="211" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE210" s="1"/>
+      <c r="AF210" s="1"/>
+      <c r="AG210" s="1"/>
+      <c r="AH210" s="1"/>
+      <c r="AI210" s="1"/>
+      <c r="AJ210" s="1"/>
+      <c r="AK210" s="1"/>
+      <c r="AL210" s="1"/>
+      <c r="AM210" s="1"/>
+      <c r="AN210" s="1"/>
+      <c r="AO210" s="1"/>
+    </row>
+    <row r="211" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>24</v>
       </c>
@@ -19982,8 +20386,19 @@
         <v>0.8</v>
       </c>
       <c r="AD211" s="1"/>
-    </row>
-    <row r="212" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE211" s="1"/>
+      <c r="AF211" s="1"/>
+      <c r="AG211" s="1"/>
+      <c r="AH211" s="1"/>
+      <c r="AI211" s="1"/>
+      <c r="AJ211" s="1"/>
+      <c r="AK211" s="1"/>
+      <c r="AL211" s="1"/>
+      <c r="AM211" s="1"/>
+      <c r="AN211" s="1"/>
+      <c r="AO211" s="1"/>
+    </row>
+    <row r="212" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>24</v>
       </c>
@@ -20069,8 +20484,19 @@
         <v>0.7</v>
       </c>
       <c r="AD212" s="1"/>
-    </row>
-    <row r="213" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE212" s="1"/>
+      <c r="AF212" s="1"/>
+      <c r="AG212" s="1"/>
+      <c r="AH212" s="1"/>
+      <c r="AI212" s="1"/>
+      <c r="AJ212" s="1"/>
+      <c r="AK212" s="1"/>
+      <c r="AL212" s="1"/>
+      <c r="AM212" s="1"/>
+      <c r="AN212" s="1"/>
+      <c r="AO212" s="1"/>
+    </row>
+    <row r="213" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>24</v>
       </c>
@@ -20156,8 +20582,19 @@
         <v>0.7</v>
       </c>
       <c r="AD213" s="1"/>
-    </row>
-    <row r="214" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE213" s="1"/>
+      <c r="AF213" s="1"/>
+      <c r="AG213" s="1"/>
+      <c r="AH213" s="1"/>
+      <c r="AI213" s="1"/>
+      <c r="AJ213" s="1"/>
+      <c r="AK213" s="1"/>
+      <c r="AL213" s="1"/>
+      <c r="AM213" s="1"/>
+      <c r="AN213" s="1"/>
+      <c r="AO213" s="1"/>
+    </row>
+    <row r="214" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>24</v>
       </c>
@@ -20241,8 +20678,19 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AD214" s="1"/>
-    </row>
-    <row r="215" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE214" s="1"/>
+      <c r="AF214" s="1"/>
+      <c r="AG214" s="1"/>
+      <c r="AH214" s="1"/>
+      <c r="AI214" s="1"/>
+      <c r="AJ214" s="1"/>
+      <c r="AK214" s="1"/>
+      <c r="AL214" s="1"/>
+      <c r="AM214" s="1"/>
+      <c r="AN214" s="1"/>
+      <c r="AO214" s="1"/>
+    </row>
+    <row r="215" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>24</v>
       </c>
@@ -20326,8 +20774,19 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AD215" s="1"/>
-    </row>
-    <row r="216" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE215" s="1"/>
+      <c r="AF215" s="1"/>
+      <c r="AG215" s="1"/>
+      <c r="AH215" s="1"/>
+      <c r="AI215" s="1"/>
+      <c r="AJ215" s="1"/>
+      <c r="AK215" s="1"/>
+      <c r="AL215" s="1"/>
+      <c r="AM215" s="1"/>
+      <c r="AN215" s="1"/>
+      <c r="AO215" s="1"/>
+    </row>
+    <row r="216" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>24</v>
       </c>
@@ -20360,71 +20819,82 @@
         <v>0.04</v>
       </c>
       <c r="L216" s="5">
-        <f t="shared" ref="L216:L223" si="142">K216*0.75</f>
+        <f t="shared" ref="L216:L223" si="140">K216*0.75</f>
         <v>0.03</v>
       </c>
       <c r="M216" s="5">
-        <f t="shared" ref="M216:M223" si="143">K216*1.25</f>
+        <f t="shared" ref="M216:M223" si="141">K216*1.25</f>
         <v>0.05</v>
       </c>
       <c r="N216" s="5">
         <v>5.5E-2</v>
       </c>
       <c r="O216" s="5">
-        <f t="shared" ref="O216:O223" si="144">N216*0.75</f>
+        <f t="shared" ref="O216:O223" si="142">N216*0.75</f>
         <v>4.1250000000000002E-2</v>
       </c>
       <c r="P216" s="5">
-        <f t="shared" ref="P216:P223" si="145">N216*1.25</f>
+        <f t="shared" ref="P216:P223" si="143">N216*1.25</f>
         <v>6.8750000000000006E-2</v>
       </c>
       <c r="Q216" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="R216" s="5">
-        <f t="shared" ref="R216:R223" si="146">Q216*0.75</f>
+        <f t="shared" ref="R216:R223" si="144">Q216*0.75</f>
         <v>5.6249999999999994E-2</v>
       </c>
       <c r="S216" s="5">
-        <f t="shared" ref="S216:S223" si="147">Q216*1.25</f>
+        <f t="shared" ref="S216:S223" si="145">Q216*1.25</f>
         <v>9.375E-2</v>
       </c>
       <c r="T216" s="5">
         <v>0.08</v>
       </c>
       <c r="U216" s="5">
-        <f t="shared" ref="U216:U223" si="148">T216*0.75</f>
+        <f t="shared" ref="U216:U223" si="146">T216*0.75</f>
         <v>0.06</v>
       </c>
       <c r="V216" s="5">
-        <f t="shared" ref="V216:V223" si="149">T216*1.25</f>
+        <f t="shared" ref="V216:V223" si="147">T216*1.25</f>
         <v>0.1</v>
       </c>
       <c r="W216" s="5">
         <v>0.09</v>
       </c>
       <c r="X216" s="5">
-        <f t="shared" ref="X216:X223" si="150">W216*0.75</f>
+        <f t="shared" ref="X216:X223" si="148">W216*0.75</f>
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="Y216" s="5">
-        <f t="shared" ref="Y216:Y223" si="151">W216*1.25</f>
+        <f t="shared" ref="Y216:Y223" si="149">W216*1.25</f>
         <v>0.11249999999999999</v>
       </c>
       <c r="Z216" s="5">
         <v>0.1</v>
       </c>
       <c r="AA216" s="5">
-        <f t="shared" ref="AA216:AA223" si="152">Z216*0.75</f>
+        <f t="shared" ref="AA216:AA223" si="150">Z216*0.75</f>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AB216" s="5">
-        <f t="shared" ref="AB216:AB223" si="153">Z216*1.25</f>
+        <f t="shared" ref="AB216:AB223" si="151">Z216*1.25</f>
         <v>0.125</v>
       </c>
       <c r="AD216" s="1"/>
-    </row>
-    <row r="217" spans="1:30" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE216" s="1"/>
+      <c r="AF216" s="1"/>
+      <c r="AG216" s="1"/>
+      <c r="AH216" s="1"/>
+      <c r="AI216" s="1"/>
+      <c r="AJ216" s="1"/>
+      <c r="AK216" s="1"/>
+      <c r="AL216" s="1"/>
+      <c r="AM216" s="1"/>
+      <c r="AN216" s="1"/>
+      <c r="AO216" s="1"/>
+    </row>
+    <row r="217" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>24</v>
       </c>
@@ -20457,71 +20927,82 @@
         <v>0.05</v>
       </c>
       <c r="L217" s="10">
-        <f t="shared" si="142"/>
+        <f t="shared" si="140"/>
         <v>3.7500000000000006E-2</v>
       </c>
       <c r="M217" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>6.25E-2</v>
       </c>
       <c r="N217" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O217" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="142"/>
         <v>5.6249999999999994E-2</v>
       </c>
       <c r="P217" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="143"/>
         <v>9.375E-2</v>
       </c>
       <c r="Q217" s="10">
         <v>0.1</v>
       </c>
       <c r="R217" s="10">
-        <f t="shared" si="146"/>
+        <f t="shared" si="144"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="S217" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="145"/>
         <v>0.125</v>
       </c>
       <c r="T217" s="10">
         <v>0.15</v>
       </c>
       <c r="U217" s="10">
+        <f t="shared" si="146"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="V217" s="10">
+        <f t="shared" si="147"/>
+        <v>0.1875</v>
+      </c>
+      <c r="W217" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="X217" s="10">
         <f t="shared" si="148"/>
         <v>0.11249999999999999</v>
       </c>
-      <c r="V217" s="10">
+      <c r="Y217" s="10">
         <f t="shared" si="149"/>
         <v>0.1875</v>
       </c>
-      <c r="W217" s="10">
+      <c r="Z217" s="10">
         <v>0.15</v>
       </c>
-      <c r="X217" s="10">
+      <c r="AA217" s="10">
         <f t="shared" si="150"/>
         <v>0.11249999999999999</v>
       </c>
-      <c r="Y217" s="10">
+      <c r="AB217" s="10">
         <f t="shared" si="151"/>
         <v>0.1875</v>
       </c>
-      <c r="Z217" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="AA217" s="10">
-        <f t="shared" si="152"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="AB217" s="10">
-        <f t="shared" si="153"/>
-        <v>0.1875</v>
-      </c>
       <c r="AD217" s="1"/>
-    </row>
-    <row r="218" spans="1:30" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE217" s="1"/>
+      <c r="AF217" s="1"/>
+      <c r="AG217" s="1"/>
+      <c r="AH217" s="1"/>
+      <c r="AI217" s="1"/>
+      <c r="AJ217" s="1"/>
+      <c r="AK217" s="1"/>
+      <c r="AL217" s="1"/>
+      <c r="AM217" s="1"/>
+      <c r="AN217" s="1"/>
+      <c r="AO217" s="1"/>
+    </row>
+    <row r="218" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="19" t="s">
         <v>29</v>
       </c>
@@ -20552,71 +21033,82 @@
         <v>5</v>
       </c>
       <c r="L218" s="31">
+        <f t="shared" si="140"/>
+        <v>3.75</v>
+      </c>
+      <c r="M218" s="31">
+        <f t="shared" si="141"/>
+        <v>6.25</v>
+      </c>
+      <c r="N218" s="31">
+        <v>5</v>
+      </c>
+      <c r="O218" s="31">
         <f t="shared" si="142"/>
         <v>3.75</v>
       </c>
-      <c r="M218" s="31">
+      <c r="P218" s="31">
         <f t="shared" si="143"/>
         <v>6.25</v>
       </c>
-      <c r="N218" s="31">
+      <c r="Q218" s="31">
         <v>5</v>
       </c>
-      <c r="O218" s="31">
+      <c r="R218" s="31">
         <f t="shared" si="144"/>
         <v>3.75</v>
       </c>
-      <c r="P218" s="31">
+      <c r="S218" s="31">
         <f t="shared" si="145"/>
         <v>6.25</v>
       </c>
-      <c r="Q218" s="31">
+      <c r="T218" s="31">
         <v>5</v>
       </c>
-      <c r="R218" s="31">
+      <c r="U218" s="31">
         <f t="shared" si="146"/>
         <v>3.75</v>
       </c>
-      <c r="S218" s="31">
+      <c r="V218" s="31">
         <f t="shared" si="147"/>
         <v>6.25</v>
       </c>
-      <c r="T218" s="31">
+      <c r="W218" s="31">
         <v>5</v>
       </c>
-      <c r="U218" s="31">
+      <c r="X218" s="31">
         <f t="shared" si="148"/>
         <v>3.75</v>
       </c>
-      <c r="V218" s="31">
+      <c r="Y218" s="31">
         <f t="shared" si="149"/>
         <v>6.25</v>
       </c>
-      <c r="W218" s="31">
+      <c r="Z218" s="31">
         <v>5</v>
       </c>
-      <c r="X218" s="31">
+      <c r="AA218" s="31">
         <f t="shared" si="150"/>
         <v>3.75</v>
       </c>
-      <c r="Y218" s="31">
+      <c r="AB218" s="31">
         <f t="shared" si="151"/>
         <v>6.25</v>
       </c>
-      <c r="Z218" s="31">
-        <v>5</v>
-      </c>
-      <c r="AA218" s="31">
-        <f t="shared" si="152"/>
-        <v>3.75</v>
-      </c>
-      <c r="AB218" s="31">
-        <f t="shared" si="153"/>
-        <v>6.25</v>
-      </c>
       <c r="AD218" s="1"/>
-    </row>
-    <row r="219" spans="1:30" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE218" s="1"/>
+      <c r="AF218" s="1"/>
+      <c r="AG218" s="1"/>
+      <c r="AH218" s="1"/>
+      <c r="AI218" s="1"/>
+      <c r="AJ218" s="1"/>
+      <c r="AK218" s="1"/>
+      <c r="AL218" s="1"/>
+      <c r="AM218" s="1"/>
+      <c r="AN218" s="1"/>
+      <c r="AO218" s="1"/>
+    </row>
+    <row r="219" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="19" t="s">
         <v>29</v>
       </c>
@@ -20647,71 +21139,82 @@
         <v>10</v>
       </c>
       <c r="L219" s="31">
+        <f t="shared" si="140"/>
+        <v>7.5</v>
+      </c>
+      <c r="M219" s="31">
+        <f t="shared" si="141"/>
+        <v>12.5</v>
+      </c>
+      <c r="N219" s="31">
+        <v>10</v>
+      </c>
+      <c r="O219" s="31">
         <f t="shared" si="142"/>
         <v>7.5</v>
       </c>
-      <c r="M219" s="31">
+      <c r="P219" s="31">
         <f t="shared" si="143"/>
         <v>12.5</v>
       </c>
-      <c r="N219" s="31">
+      <c r="Q219" s="31">
         <v>10</v>
       </c>
-      <c r="O219" s="31">
+      <c r="R219" s="31">
         <f t="shared" si="144"/>
         <v>7.5</v>
       </c>
-      <c r="P219" s="31">
+      <c r="S219" s="31">
         <f t="shared" si="145"/>
         <v>12.5</v>
       </c>
-      <c r="Q219" s="31">
+      <c r="T219" s="31">
         <v>10</v>
       </c>
-      <c r="R219" s="31">
+      <c r="U219" s="31">
         <f t="shared" si="146"/>
         <v>7.5</v>
       </c>
-      <c r="S219" s="31">
+      <c r="V219" s="31">
         <f t="shared" si="147"/>
         <v>12.5</v>
       </c>
-      <c r="T219" s="31">
+      <c r="W219" s="31">
         <v>10</v>
       </c>
-      <c r="U219" s="31">
+      <c r="X219" s="31">
         <f t="shared" si="148"/>
         <v>7.5</v>
       </c>
-      <c r="V219" s="31">
+      <c r="Y219" s="31">
         <f t="shared" si="149"/>
         <v>12.5</v>
       </c>
-      <c r="W219" s="31">
+      <c r="Z219" s="31">
         <v>10</v>
       </c>
-      <c r="X219" s="31">
+      <c r="AA219" s="31">
         <f t="shared" si="150"/>
         <v>7.5</v>
       </c>
-      <c r="Y219" s="31">
+      <c r="AB219" s="31">
         <f t="shared" si="151"/>
         <v>12.5</v>
       </c>
-      <c r="Z219" s="31">
-        <v>10</v>
-      </c>
-      <c r="AA219" s="31">
-        <f t="shared" si="152"/>
-        <v>7.5</v>
-      </c>
-      <c r="AB219" s="31">
-        <f t="shared" si="153"/>
-        <v>12.5</v>
-      </c>
       <c r="AD219" s="1"/>
-    </row>
-    <row r="220" spans="1:30" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE219" s="1"/>
+      <c r="AF219" s="1"/>
+      <c r="AG219" s="1"/>
+      <c r="AH219" s="1"/>
+      <c r="AI219" s="1"/>
+      <c r="AJ219" s="1"/>
+      <c r="AK219" s="1"/>
+      <c r="AL219" s="1"/>
+      <c r="AM219" s="1"/>
+      <c r="AN219" s="1"/>
+      <c r="AO219" s="1"/>
+    </row>
+    <row r="220" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="19" t="s">
         <v>29</v>
       </c>
@@ -20742,71 +21245,82 @@
         <v>21</v>
       </c>
       <c r="L220" s="31">
+        <f t="shared" si="140"/>
+        <v>15.75</v>
+      </c>
+      <c r="M220" s="31">
+        <f t="shared" si="141"/>
+        <v>26.25</v>
+      </c>
+      <c r="N220" s="31">
+        <v>21</v>
+      </c>
+      <c r="O220" s="31">
         <f t="shared" si="142"/>
         <v>15.75</v>
       </c>
-      <c r="M220" s="31">
+      <c r="P220" s="31">
         <f t="shared" si="143"/>
         <v>26.25</v>
       </c>
-      <c r="N220" s="31">
+      <c r="Q220" s="31">
         <v>21</v>
       </c>
-      <c r="O220" s="31">
+      <c r="R220" s="31">
         <f t="shared" si="144"/>
         <v>15.75</v>
       </c>
-      <c r="P220" s="31">
+      <c r="S220" s="31">
         <f t="shared" si="145"/>
         <v>26.25</v>
       </c>
-      <c r="Q220" s="31">
+      <c r="T220" s="31">
         <v>21</v>
       </c>
-      <c r="R220" s="31">
+      <c r="U220" s="31">
         <f t="shared" si="146"/>
         <v>15.75</v>
       </c>
-      <c r="S220" s="31">
+      <c r="V220" s="31">
         <f t="shared" si="147"/>
         <v>26.25</v>
       </c>
-      <c r="T220" s="31">
+      <c r="W220" s="31">
         <v>21</v>
       </c>
-      <c r="U220" s="31">
+      <c r="X220" s="31">
         <f t="shared" si="148"/>
         <v>15.75</v>
       </c>
-      <c r="V220" s="31">
+      <c r="Y220" s="31">
         <f t="shared" si="149"/>
         <v>26.25</v>
       </c>
-      <c r="W220" s="31">
+      <c r="Z220" s="31">
         <v>21</v>
       </c>
-      <c r="X220" s="31">
+      <c r="AA220" s="31">
         <f t="shared" si="150"/>
         <v>15.75</v>
       </c>
-      <c r="Y220" s="31">
+      <c r="AB220" s="31">
         <f t="shared" si="151"/>
         <v>26.25</v>
       </c>
-      <c r="Z220" s="31">
-        <v>21</v>
-      </c>
-      <c r="AA220" s="31">
-        <f t="shared" si="152"/>
-        <v>15.75</v>
-      </c>
-      <c r="AB220" s="31">
-        <f t="shared" si="153"/>
-        <v>26.25</v>
-      </c>
       <c r="AD220" s="1"/>
-    </row>
-    <row r="221" spans="1:30" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE220" s="1"/>
+      <c r="AF220" s="1"/>
+      <c r="AG220" s="1"/>
+      <c r="AH220" s="1"/>
+      <c r="AI220" s="1"/>
+      <c r="AJ220" s="1"/>
+      <c r="AK220" s="1"/>
+      <c r="AL220" s="1"/>
+      <c r="AM220" s="1"/>
+      <c r="AN220" s="1"/>
+      <c r="AO220" s="1"/>
+    </row>
+    <row r="221" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="19" t="s">
         <v>29</v>
       </c>
@@ -20837,71 +21351,82 @@
         <v>13</v>
       </c>
       <c r="L221" s="31">
+        <f t="shared" si="140"/>
+        <v>9.75</v>
+      </c>
+      <c r="M221" s="31">
+        <f t="shared" si="141"/>
+        <v>16.25</v>
+      </c>
+      <c r="N221" s="31">
+        <v>13</v>
+      </c>
+      <c r="O221" s="31">
         <f t="shared" si="142"/>
         <v>9.75</v>
       </c>
-      <c r="M221" s="31">
+      <c r="P221" s="31">
         <f t="shared" si="143"/>
         <v>16.25</v>
       </c>
-      <c r="N221" s="31">
+      <c r="Q221" s="31">
         <v>13</v>
       </c>
-      <c r="O221" s="31">
+      <c r="R221" s="31">
         <f t="shared" si="144"/>
         <v>9.75</v>
       </c>
-      <c r="P221" s="31">
+      <c r="S221" s="31">
         <f t="shared" si="145"/>
         <v>16.25</v>
       </c>
-      <c r="Q221" s="31">
+      <c r="T221" s="31">
         <v>13</v>
       </c>
-      <c r="R221" s="31">
+      <c r="U221" s="31">
         <f t="shared" si="146"/>
         <v>9.75</v>
       </c>
-      <c r="S221" s="31">
+      <c r="V221" s="31">
         <f t="shared" si="147"/>
         <v>16.25</v>
       </c>
-      <c r="T221" s="31">
+      <c r="W221" s="31">
         <v>13</v>
       </c>
-      <c r="U221" s="31">
+      <c r="X221" s="31">
         <f t="shared" si="148"/>
         <v>9.75</v>
       </c>
-      <c r="V221" s="31">
+      <c r="Y221" s="31">
         <f t="shared" si="149"/>
         <v>16.25</v>
       </c>
-      <c r="W221" s="31">
+      <c r="Z221" s="31">
         <v>13</v>
       </c>
-      <c r="X221" s="31">
+      <c r="AA221" s="31">
         <f t="shared" si="150"/>
         <v>9.75</v>
       </c>
-      <c r="Y221" s="31">
+      <c r="AB221" s="31">
         <f t="shared" si="151"/>
         <v>16.25</v>
       </c>
-      <c r="Z221" s="31">
-        <v>13</v>
-      </c>
-      <c r="AA221" s="31">
-        <f t="shared" si="152"/>
-        <v>9.75</v>
-      </c>
-      <c r="AB221" s="31">
-        <f t="shared" si="153"/>
-        <v>16.25</v>
-      </c>
       <c r="AD221" s="1"/>
-    </row>
-    <row r="222" spans="1:30" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE221" s="1"/>
+      <c r="AF221" s="1"/>
+      <c r="AG221" s="1"/>
+      <c r="AH221" s="1"/>
+      <c r="AI221" s="1"/>
+      <c r="AJ221" s="1"/>
+      <c r="AK221" s="1"/>
+      <c r="AL221" s="1"/>
+      <c r="AM221" s="1"/>
+      <c r="AN221" s="1"/>
+      <c r="AO221" s="1"/>
+    </row>
+    <row r="222" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="19" t="s">
         <v>29</v>
       </c>
@@ -20932,71 +21457,82 @@
         <v>26</v>
       </c>
       <c r="L222" s="31">
+        <f t="shared" si="140"/>
+        <v>19.5</v>
+      </c>
+      <c r="M222" s="31">
+        <f t="shared" si="141"/>
+        <v>32.5</v>
+      </c>
+      <c r="N222" s="31">
+        <v>26</v>
+      </c>
+      <c r="O222" s="31">
         <f t="shared" si="142"/>
         <v>19.5</v>
       </c>
-      <c r="M222" s="31">
+      <c r="P222" s="31">
         <f t="shared" si="143"/>
         <v>32.5</v>
       </c>
-      <c r="N222" s="31">
+      <c r="Q222" s="31">
         <v>26</v>
       </c>
-      <c r="O222" s="31">
+      <c r="R222" s="31">
         <f t="shared" si="144"/>
         <v>19.5</v>
       </c>
-      <c r="P222" s="31">
+      <c r="S222" s="31">
         <f t="shared" si="145"/>
         <v>32.5</v>
       </c>
-      <c r="Q222" s="31">
+      <c r="T222" s="31">
         <v>26</v>
       </c>
-      <c r="R222" s="31">
+      <c r="U222" s="31">
         <f t="shared" si="146"/>
         <v>19.5</v>
       </c>
-      <c r="S222" s="31">
+      <c r="V222" s="31">
         <f t="shared" si="147"/>
         <v>32.5</v>
       </c>
-      <c r="T222" s="31">
+      <c r="W222" s="31">
         <v>26</v>
       </c>
-      <c r="U222" s="31">
+      <c r="X222" s="31">
         <f t="shared" si="148"/>
         <v>19.5</v>
       </c>
-      <c r="V222" s="31">
+      <c r="Y222" s="31">
         <f t="shared" si="149"/>
         <v>32.5</v>
       </c>
-      <c r="W222" s="31">
+      <c r="Z222" s="31">
         <v>26</v>
       </c>
-      <c r="X222" s="31">
+      <c r="AA222" s="31">
         <f t="shared" si="150"/>
         <v>19.5</v>
       </c>
-      <c r="Y222" s="31">
+      <c r="AB222" s="31">
         <f t="shared" si="151"/>
         <v>32.5</v>
       </c>
-      <c r="Z222" s="31">
-        <v>26</v>
-      </c>
-      <c r="AA222" s="31">
-        <f t="shared" si="152"/>
-        <v>19.5</v>
-      </c>
-      <c r="AB222" s="31">
-        <f t="shared" si="153"/>
-        <v>32.5</v>
-      </c>
       <c r="AD222" s="1"/>
-    </row>
-    <row r="223" spans="1:30" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE222" s="1"/>
+      <c r="AF222" s="1"/>
+      <c r="AG222" s="1"/>
+      <c r="AH222" s="1"/>
+      <c r="AI222" s="1"/>
+      <c r="AJ222" s="1"/>
+      <c r="AK222" s="1"/>
+      <c r="AL222" s="1"/>
+      <c r="AM222" s="1"/>
+      <c r="AN222" s="1"/>
+      <c r="AO222" s="1"/>
+    </row>
+    <row r="223" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="19" t="s">
         <v>29</v>
       </c>
@@ -21027,71 +21563,82 @@
         <v>19</v>
       </c>
       <c r="L223" s="31">
+        <f t="shared" si="140"/>
+        <v>14.25</v>
+      </c>
+      <c r="M223" s="31">
+        <f t="shared" si="141"/>
+        <v>23.75</v>
+      </c>
+      <c r="N223" s="31">
+        <v>19</v>
+      </c>
+      <c r="O223" s="31">
         <f t="shared" si="142"/>
         <v>14.25</v>
       </c>
-      <c r="M223" s="31">
+      <c r="P223" s="31">
         <f t="shared" si="143"/>
         <v>23.75</v>
       </c>
-      <c r="N223" s="31">
+      <c r="Q223" s="31">
         <v>19</v>
       </c>
-      <c r="O223" s="31">
+      <c r="R223" s="31">
         <f t="shared" si="144"/>
         <v>14.25</v>
       </c>
-      <c r="P223" s="31">
+      <c r="S223" s="31">
         <f t="shared" si="145"/>
         <v>23.75</v>
       </c>
-      <c r="Q223" s="31">
+      <c r="T223" s="31">
         <v>19</v>
       </c>
-      <c r="R223" s="31">
+      <c r="U223" s="31">
         <f t="shared" si="146"/>
         <v>14.25</v>
       </c>
-      <c r="S223" s="31">
+      <c r="V223" s="31">
         <f t="shared" si="147"/>
         <v>23.75</v>
       </c>
-      <c r="T223" s="31">
+      <c r="W223" s="31">
         <v>19</v>
       </c>
-      <c r="U223" s="31">
+      <c r="X223" s="31">
         <f t="shared" si="148"/>
         <v>14.25</v>
       </c>
-      <c r="V223" s="31">
+      <c r="Y223" s="31">
         <f t="shared" si="149"/>
         <v>23.75</v>
       </c>
-      <c r="W223" s="31">
+      <c r="Z223" s="31">
         <v>19</v>
       </c>
-      <c r="X223" s="31">
+      <c r="AA223" s="31">
         <f t="shared" si="150"/>
         <v>14.25</v>
       </c>
-      <c r="Y223" s="31">
+      <c r="AB223" s="31">
         <f t="shared" si="151"/>
         <v>23.75</v>
       </c>
-      <c r="Z223" s="31">
-        <v>19</v>
-      </c>
-      <c r="AA223" s="31">
-        <f t="shared" si="152"/>
-        <v>14.25</v>
-      </c>
-      <c r="AB223" s="31">
-        <f t="shared" si="153"/>
-        <v>23.75</v>
-      </c>
       <c r="AD223" s="1"/>
-    </row>
-    <row r="224" spans="1:30" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE223" s="1"/>
+      <c r="AF223" s="1"/>
+      <c r="AG223" s="1"/>
+      <c r="AH223" s="1"/>
+      <c r="AI223" s="1"/>
+      <c r="AJ223" s="1"/>
+      <c r="AK223" s="1"/>
+      <c r="AL223" s="1"/>
+      <c r="AM223" s="1"/>
+      <c r="AN223" s="1"/>
+      <c r="AO223" s="1"/>
+    </row>
+    <row r="224" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="19" t="s">
         <v>29</v>
       </c>
@@ -21175,8 +21722,19 @@
         <v>90</v>
       </c>
       <c r="AD224" s="1"/>
-    </row>
-    <row r="225" spans="1:30" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE224" s="1"/>
+      <c r="AF224" s="1"/>
+      <c r="AG224" s="1"/>
+      <c r="AH224" s="1"/>
+      <c r="AI224" s="1"/>
+      <c r="AJ224" s="1"/>
+      <c r="AK224" s="1"/>
+      <c r="AL224" s="1"/>
+      <c r="AM224" s="1"/>
+      <c r="AN224" s="1"/>
+      <c r="AO224" s="1"/>
+    </row>
+    <row r="225" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>23</v>
       </c>
@@ -21274,8 +21832,19 @@
         <v>2812.5</v>
       </c>
       <c r="AD225" s="1"/>
-    </row>
-    <row r="226" spans="1:30" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE225" s="1"/>
+      <c r="AF225" s="1"/>
+      <c r="AG225" s="1"/>
+      <c r="AH225" s="1"/>
+      <c r="AI225" s="1"/>
+      <c r="AJ225" s="1"/>
+      <c r="AK225" s="1"/>
+      <c r="AL225" s="1"/>
+      <c r="AM225" s="1"/>
+      <c r="AN225" s="1"/>
+      <c r="AO225" s="1"/>
+    </row>
+    <row r="226" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>23</v>
       </c>
@@ -21373,8 +21942,19 @@
         <v>6250</v>
       </c>
       <c r="AD226" s="1"/>
-    </row>
-    <row r="227" spans="1:30" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE226" s="1"/>
+      <c r="AF226" s="1"/>
+      <c r="AG226" s="1"/>
+      <c r="AH226" s="1"/>
+      <c r="AI226" s="1"/>
+      <c r="AJ226" s="1"/>
+      <c r="AK226" s="1"/>
+      <c r="AL226" s="1"/>
+      <c r="AM226" s="1"/>
+      <c r="AN226" s="1"/>
+      <c r="AO226" s="1"/>
+    </row>
+    <row r="227" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>23</v>
       </c>
@@ -21472,8 +22052,19 @@
         <v>4375</v>
       </c>
       <c r="AD227" s="1"/>
-    </row>
-    <row r="228" spans="1:30" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE227" s="1"/>
+      <c r="AF227" s="1"/>
+      <c r="AG227" s="1"/>
+      <c r="AH227" s="1"/>
+      <c r="AI227" s="1"/>
+      <c r="AJ227" s="1"/>
+      <c r="AK227" s="1"/>
+      <c r="AL227" s="1"/>
+      <c r="AM227" s="1"/>
+      <c r="AN227" s="1"/>
+      <c r="AO227" s="1"/>
+    </row>
+    <row r="228" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="19" t="s">
         <v>21</v>
       </c>
@@ -21559,8 +22150,19 @@
         <v>0.6</v>
       </c>
       <c r="AD228" s="1"/>
-    </row>
-    <row r="229" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE228" s="1"/>
+      <c r="AF228" s="1"/>
+      <c r="AG228" s="1"/>
+      <c r="AH228" s="1"/>
+      <c r="AI228" s="1"/>
+      <c r="AJ228" s="1"/>
+      <c r="AK228" s="1"/>
+      <c r="AL228" s="1"/>
+      <c r="AM228" s="1"/>
+      <c r="AN228" s="1"/>
+      <c r="AO228" s="1"/>
+    </row>
+    <row r="229" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>186</v>
       </c>
@@ -21648,10 +22250,10 @@
   <autoFilter ref="A2:AB229">
     <filterColumn colId="3">
       <filters>
-        <filter val="battery cycle life, LFP"/>
-        <filter val="battery cycle life, LTO"/>
-        <filter val="battery cycle life, NCA"/>
-        <filter val="battery cycle life, NMC-111"/>
+        <filter val="CNG engine efficiency correction factor"/>
+        <filter val="CNG pump-to-tank leakage"/>
+        <filter val="CNG tank mass intercept"/>
+        <filter val="CNG tank mass slope"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dev/Input data.xlsx
+++ b/dev/Input data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\carculator_bus\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_bus/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D8FED-0BF6-3B46-9347-B7BB404C24FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="23040" windowHeight="9312" tabRatio="518"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28400" windowHeight="17460" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle parameters" sheetId="22" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle parameters'!$A$2:$AB$238</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,6 +26,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -936,13 +939,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,6 +1030,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1057,7 +1067,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1164,18 +1174,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
-    <cellStyle name="Normal 2 2 2" xfId="8"/>
-    <cellStyle name="Normal 2 3" xfId="7"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="5"/>
-    <cellStyle name="Standard 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1266,6 +1279,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1301,6 +1331,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1476,40 +1523,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AO238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="P106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q212" sqref="Q212"/>
+      <selection pane="bottomRight" activeCell="Y242" sqref="Y242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="16" customWidth="1"/>
     <col min="3" max="3" width="15" style="16" customWidth="1"/>
-    <col min="4" max="4" width="39.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="16" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="19" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -1595,7 +1642,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="K2" s="15" t="s">
         <v>12</v>
       </c>
@@ -1651,7 +1698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>20</v>
       </c>
@@ -1749,7 +1796,7 @@
         <v>306.25</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
@@ -1847,7 +1894,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
@@ -1945,7 +1992,7 @@
         <v>867.5</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>20</v>
       </c>
@@ -2043,7 +2090,7 @@
         <v>806.25</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
@@ -2141,7 +2188,7 @@
         <v>1126.25</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>20</v>
       </c>
@@ -2239,7 +2286,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -2299,7 +2346,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -2393,7 +2440,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -2487,7 +2534,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -2585,7 +2632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -2683,7 +2730,7 @@
         <v>186.25</v>
       </c>
     </row>
-    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>185</v>
       </c>
@@ -2781,7 +2828,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>20</v>
       </c>
@@ -2879,7 +2926,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>20</v>
       </c>
@@ -2977,7 +3024,7 @@
         <v>1862.5</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>20</v>
       </c>
@@ -3075,7 +3122,7 @@
         <v>2243.75</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
@@ -3173,7 +3220,7 @@
         <v>2691.25</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
@@ -3271,7 +3318,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>20</v>
       </c>
@@ -3369,7 +3416,7 @@
         <v>2691.25</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
@@ -3453,7 +3500,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
@@ -3551,7 +3598,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="23" spans="1:41" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" s="28" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>20</v>
       </c>
@@ -3661,7 +3708,7 @@
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
     </row>
-    <row r="24" spans="1:41" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" s="28" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>20</v>
       </c>
@@ -3771,7 +3818,7 @@
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
     </row>
-    <row r="25" spans="1:41" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" s="28" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>20</v>
       </c>
@@ -3881,7 +3928,7 @@
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
     </row>
-    <row r="26" spans="1:41" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" s="28" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>20</v>
       </c>
@@ -3991,7 +4038,7 @@
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
     </row>
-    <row r="27" spans="1:41" s="28" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" s="28" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>20</v>
       </c>
@@ -4101,7 +4148,7 @@
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
     </row>
-    <row r="28" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>20</v>
       </c>
@@ -4215,7 +4262,7 @@
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
     </row>
-    <row r="29" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>20</v>
       </c>
@@ -4323,7 +4370,7 @@
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
     </row>
-    <row r="30" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>20</v>
       </c>
@@ -4437,7 +4484,7 @@
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
     </row>
-    <row r="31" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>20</v>
       </c>
@@ -4545,7 +4592,7 @@
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
     </row>
-    <row r="32" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>20</v>
       </c>
@@ -4653,7 +4700,7 @@
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
     </row>
-    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>20</v>
       </c>
@@ -4755,7 +4802,7 @@
         <v>17.763975155279507</v>
       </c>
     </row>
-    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
@@ -4851,7 +4898,7 @@
         <v>20.900000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>20</v>
       </c>
@@ -4953,7 +5000,7 @@
         <v>17.763975155279507</v>
       </c>
     </row>
-    <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>20</v>
       </c>
@@ -5049,7 +5096,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>20</v>
       </c>
@@ -5145,7 +5192,7 @@
         <v>12.65</v>
       </c>
     </row>
-    <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>20</v>
       </c>
@@ -5241,7 +5288,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="39" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>20</v>
       </c>
@@ -5337,7 +5384,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>20</v>
       </c>
@@ -5433,7 +5480,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>20</v>
       </c>
@@ -5529,7 +5576,7 @@
         <v>12.65</v>
       </c>
     </row>
-    <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>20</v>
       </c>
@@ -5625,7 +5672,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>20</v>
       </c>
@@ -5721,7 +5768,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>20</v>
       </c>
@@ -5817,7 +5864,7 @@
         <v>12.65</v>
       </c>
     </row>
-    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>20</v>
       </c>
@@ -5913,7 +5960,7 @@
         <v>12.100000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
         <v>20</v>
       </c>
@@ -6009,7 +6056,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>20</v>
       </c>
@@ -6105,7 +6152,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -6187,7 +6234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
@@ -6247,7 +6294,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>28</v>
       </c>
@@ -6343,7 +6390,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>20</v>
       </c>
@@ -6441,7 +6488,7 @@
         <v>758.75</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>20</v>
       </c>
@@ -6539,7 +6586,7 @@
         <v>1072.5</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>20</v>
       </c>
@@ -6637,7 +6684,7 @@
         <v>1291.25</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>20</v>
       </c>
@@ -6735,7 +6782,7 @@
         <v>1102.5</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>20</v>
       </c>
@@ -6833,7 +6880,7 @@
         <v>1997.5</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>20</v>
       </c>
@@ -6931,7 +6978,7 @@
         <v>1827.5</v>
       </c>
     </row>
-    <row r="57" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>28</v>
       </c>
@@ -6991,7 +7038,7 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>28</v>
       </c>
@@ -7051,7 +7098,7 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>28</v>
       </c>
@@ -7111,7 +7158,7 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>20</v>
       </c>
@@ -7170,7 +7217,7 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>20</v>
       </c>
@@ -7229,7 +7276,7 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>23</v>
       </c>
@@ -7291,7 +7338,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>23</v>
       </c>
@@ -7353,7 +7400,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>185</v>
       </c>
@@ -7431,7 +7478,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>185</v>
       </c>
@@ -7535,7 +7582,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>185</v>
       </c>
@@ -7639,7 +7686,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>185</v>
       </c>
@@ -7725,7 +7772,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>20</v>
       </c>
@@ -7819,7 +7866,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
         <v>20</v>
       </c>
@@ -7913,7 +7960,7 @@
         <v>0.33750000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>28</v>
       </c>
@@ -8011,7 +8058,7 @@
         <v>770000.00000000012</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>28</v>
       </c>
@@ -8109,7 +8156,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>23</v>
       </c>
@@ -8167,7 +8214,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>23</v>
       </c>
@@ -8226,7 +8273,7 @@
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
     </row>
-    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>23</v>
       </c>
@@ -8284,7 +8331,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>28</v>
       </c>
@@ -8382,7 +8429,7 @@
         <v>55000.000000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>28</v>
       </c>
@@ -8480,7 +8527,7 @@
         <v>55000.000000000007</v>
       </c>
     </row>
-    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>21</v>
       </c>
@@ -8572,7 +8619,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>21</v>
       </c>
@@ -8662,7 +8709,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>185</v>
       </c>
@@ -8740,7 +8787,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>185</v>
       </c>
@@ -8826,7 +8873,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
         <v>28</v>
       </c>
@@ -8920,7 +8967,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
         <v>28</v>
       </c>
@@ -9014,7 +9061,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
         <v>28</v>
       </c>
@@ -9108,7 +9155,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
         <v>28</v>
       </c>
@@ -9202,7 +9249,7 @@
         <v>103.75</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
         <v>28</v>
       </c>
@@ -9296,7 +9343,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
         <v>28</v>
       </c>
@@ -9390,7 +9437,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>22</v>
       </c>
@@ -9452,7 +9499,7 @@
       <c r="AA87" s="15"/>
       <c r="AB87" s="15"/>
     </row>
-    <row r="88" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>22</v>
       </c>
@@ -9514,7 +9561,7 @@
       <c r="AA88" s="15"/>
       <c r="AB88" s="15"/>
     </row>
-    <row r="89" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>22</v>
       </c>
@@ -9598,7 +9645,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>22</v>
       </c>
@@ -9684,7 +9731,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>22</v>
       </c>
@@ -9770,7 +9817,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>22</v>
       </c>
@@ -9856,7 +9903,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>22</v>
       </c>
@@ -9914,7 +9961,7 @@
       <c r="AA93" s="15"/>
       <c r="AB93" s="15"/>
     </row>
-    <row r="94" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>22</v>
       </c>
@@ -9972,7 +10019,7 @@
       <c r="AA94" s="15"/>
       <c r="AB94" s="15"/>
     </row>
-    <row r="95" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>22</v>
       </c>
@@ -10030,7 +10077,7 @@
       <c r="AA95" s="15"/>
       <c r="AB95" s="15"/>
     </row>
-    <row r="96" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>185</v>
       </c>
@@ -10108,7 +10155,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>22</v>
       </c>
@@ -10194,7 +10241,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>22</v>
       </c>
@@ -10278,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>22</v>
       </c>
@@ -10364,7 +10411,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>22</v>
       </c>
@@ -10448,7 +10495,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="101" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
         <v>20</v>
       </c>
@@ -10506,7 +10553,7 @@
       <c r="AA101" s="9"/>
       <c r="AB101" s="9"/>
     </row>
-    <row r="102" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
         <v>20</v>
       </c>
@@ -10564,7 +10611,7 @@
       <c r="AA102" s="9"/>
       <c r="AB102" s="9"/>
     </row>
-    <row r="103" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
         <v>20</v>
       </c>
@@ -10622,7 +10669,7 @@
       <c r="AA103" s="9"/>
       <c r="AB103" s="9"/>
     </row>
-    <row r="104" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
         <v>20</v>
       </c>
@@ -10680,7 +10727,7 @@
       <c r="AA104" s="9"/>
       <c r="AB104" s="9"/>
     </row>
-    <row r="105" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>185</v>
       </c>
@@ -10758,7 +10805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
         <v>20</v>
       </c>
@@ -10856,7 +10903,7 @@
         <v>5927.5</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
         <v>20</v>
       </c>
@@ -10954,7 +11001,7 @@
         <v>9125</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
         <v>20</v>
       </c>
@@ -11052,7 +11099,7 @@
         <v>9432.5</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
         <v>20</v>
       </c>
@@ -11084,73 +11131,73 @@
         <v>49</v>
       </c>
       <c r="K109" s="4">
-        <v>11000</v>
+        <v>9801</v>
       </c>
       <c r="L109" s="4">
         <f t="shared" si="62"/>
-        <v>8250</v>
+        <v>7350.75</v>
       </c>
       <c r="M109" s="4">
         <f t="shared" si="63"/>
-        <v>13750</v>
+        <v>12251.25</v>
       </c>
       <c r="N109" s="4">
-        <v>11000</v>
+        <v>9801</v>
       </c>
       <c r="O109" s="4">
         <f t="shared" si="64"/>
-        <v>8250</v>
+        <v>7350.75</v>
       </c>
       <c r="P109" s="4">
         <f t="shared" si="65"/>
-        <v>13750</v>
+        <v>12251.25</v>
       </c>
       <c r="Q109" s="4">
-        <v>11000</v>
+        <v>9801</v>
       </c>
       <c r="R109" s="4">
         <f t="shared" si="66"/>
-        <v>8250</v>
+        <v>7350.75</v>
       </c>
       <c r="S109" s="4">
         <f t="shared" si="67"/>
-        <v>13750</v>
+        <v>12251.25</v>
       </c>
       <c r="T109" s="4">
-        <v>7016</v>
+        <v>9801</v>
       </c>
       <c r="U109" s="4">
         <f t="shared" si="68"/>
-        <v>5262</v>
+        <v>7350.75</v>
       </c>
       <c r="V109" s="4">
         <f t="shared" si="69"/>
-        <v>8770</v>
-      </c>
-      <c r="W109" s="4">
-        <v>7016</v>
+        <v>12251.25</v>
+      </c>
+      <c r="W109" s="40">
+        <v>9801</v>
       </c>
       <c r="X109" s="4">
         <f t="shared" si="70"/>
-        <v>5262</v>
+        <v>7350.75</v>
       </c>
       <c r="Y109" s="4">
         <f t="shared" si="71"/>
-        <v>8770</v>
-      </c>
-      <c r="Z109" s="4">
-        <v>7016</v>
+        <v>12251.25</v>
+      </c>
+      <c r="Z109" s="40">
+        <v>9801</v>
       </c>
       <c r="AA109" s="4">
         <f t="shared" si="72"/>
-        <v>5262</v>
+        <v>7350.75</v>
       </c>
       <c r="AB109" s="4">
         <f t="shared" si="73"/>
-        <v>8770</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>12251.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
         <v>20</v>
       </c>
@@ -11248,7 +11295,7 @@
         <v>12251.25</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
         <v>20</v>
       </c>
@@ -11346,7 +11393,7 @@
         <v>11311.25</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>21</v>
       </c>
@@ -11444,7 +11491,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="113" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>23</v>
       </c>
@@ -11530,7 +11577,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>23</v>
       </c>
@@ -11612,7 +11659,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="115" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>185</v>
       </c>
@@ -11696,7 +11743,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="116" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>185</v>
       </c>
@@ -11774,7 +11821,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="117" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>185</v>
       </c>
@@ -11878,7 +11925,7 @@
         <v>34.267517746478866</v>
       </c>
     </row>
-    <row r="118" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>21</v>
       </c>
@@ -11967,7 +12014,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="119" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>21</v>
       </c>
@@ -12053,7 +12100,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="120" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>21</v>
       </c>
@@ -12139,7 +12186,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="121" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>21</v>
       </c>
@@ -12217,7 +12264,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>23</v>
       </c>
@@ -12303,7 +12350,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="123" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>21</v>
       </c>
@@ -12390,7 +12437,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="124" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>21</v>
       </c>
@@ -12477,7 +12524,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
         <v>20</v>
       </c>
@@ -12573,7 +12620,7 @@
         <v>6.3629999999999995</v>
       </c>
     </row>
-    <row r="126" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="s">
         <v>20</v>
       </c>
@@ -12669,7 +12716,7 @@
         <v>8.4735000000000014</v>
       </c>
     </row>
-    <row r="127" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
         <v>20</v>
       </c>
@@ -12765,7 +12812,7 @@
         <v>8.4735000000000014</v>
       </c>
     </row>
-    <row r="128" spans="1:41" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:41" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="19" t="s">
         <v>20</v>
       </c>
@@ -12873,7 +12920,7 @@
       <c r="AN128" s="1"/>
       <c r="AO128" s="1"/>
     </row>
-    <row r="129" spans="1:41" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:41" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
         <v>20</v>
       </c>
@@ -12981,7 +13028,7 @@
       <c r="AN129" s="1"/>
       <c r="AO129" s="1"/>
     </row>
-    <row r="130" spans="1:41" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:41" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="s">
         <v>20</v>
       </c>
@@ -13089,7 +13136,7 @@
       <c r="AN130" s="1"/>
       <c r="AO130" s="1"/>
     </row>
-    <row r="131" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:41" s="30" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="19" t="s">
         <v>20</v>
       </c>
@@ -13199,7 +13246,7 @@
       <c r="AN131" s="1"/>
       <c r="AO131" s="1"/>
     </row>
-    <row r="132" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:41" s="30" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="19" t="s">
         <v>20</v>
       </c>
@@ -13309,7 +13356,7 @@
       <c r="AN132" s="1"/>
       <c r="AO132" s="1"/>
     </row>
-    <row r="133" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:41" s="30" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="19" t="s">
         <v>20</v>
       </c>
@@ -13419,7 +13466,7 @@
       <c r="AN133" s="1"/>
       <c r="AO133" s="1"/>
     </row>
-    <row r="134" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:41" s="30" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="19" t="s">
         <v>20</v>
       </c>
@@ -13529,7 +13576,7 @@
       <c r="AN134" s="1"/>
       <c r="AO134" s="1"/>
     </row>
-    <row r="135" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:41" s="30" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="19" t="s">
         <v>20</v>
       </c>
@@ -13639,7 +13686,7 @@
       <c r="AN135" s="1"/>
       <c r="AO135" s="1"/>
     </row>
-    <row r="136" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:41" s="30" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="19" t="s">
         <v>20</v>
       </c>
@@ -13749,7 +13796,7 @@
       <c r="AN136" s="1"/>
       <c r="AO136" s="1"/>
     </row>
-    <row r="137" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:41" s="30" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>21</v>
       </c>
@@ -13862,7 +13909,7 @@
       <c r="AN137" s="1"/>
       <c r="AO137" s="1"/>
     </row>
-    <row r="138" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:41" s="30" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>21</v>
       </c>
@@ -13975,7 +14022,7 @@
       <c r="AN138" s="1"/>
       <c r="AO138" s="1"/>
     </row>
-    <row r="139" spans="1:41" s="30" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:41" s="30" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>21</v>
       </c>
@@ -14049,7 +14096,7 @@
       <c r="AN139" s="1"/>
       <c r="AO139" s="1"/>
     </row>
-    <row r="140" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>21</v>
       </c>
@@ -14111,7 +14158,7 @@
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
     </row>
-    <row r="141" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>21</v>
       </c>
@@ -14207,7 +14254,7 @@
         <v>0.99749999999999994</v>
       </c>
     </row>
-    <row r="142" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>21</v>
       </c>
@@ -14299,7 +14346,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="143" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>185</v>
       </c>
@@ -14377,7 +14424,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="144" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>185</v>
       </c>
@@ -14455,7 +14502,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="145" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>185</v>
       </c>
@@ -14533,7 +14580,7 @@
         <v>0.14904036144578314</v>
       </c>
     </row>
-    <row r="146" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>185</v>
       </c>
@@ -14611,7 +14658,7 @@
         <v>0.13097295891891891</v>
       </c>
     </row>
-    <row r="147" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>185</v>
       </c>
@@ -14689,7 +14736,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>21</v>
       </c>
@@ -14775,7 +14822,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="149" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>21</v>
       </c>
@@ -14837,7 +14884,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>30</v>
       </c>
@@ -14921,7 +14968,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="151" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="19" t="s">
         <v>20</v>
       </c>
@@ -15019,7 +15066,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="152" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="19" t="s">
         <v>20</v>
       </c>
@@ -15117,7 +15164,7 @@
         <v>228.75</v>
       </c>
     </row>
-    <row r="153" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="19" t="s">
         <v>20</v>
       </c>
@@ -15215,7 +15262,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="19" t="s">
         <v>20</v>
       </c>
@@ -15313,7 +15360,7 @@
         <v>256.25</v>
       </c>
     </row>
-    <row r="155" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="19" t="s">
         <v>20</v>
       </c>
@@ -15411,7 +15458,7 @@
         <v>357.5</v>
       </c>
     </row>
-    <row r="156" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="19" t="s">
         <v>20</v>
       </c>
@@ -15509,7 +15556,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>185</v>
       </c>
@@ -15587,7 +15634,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>185</v>
       </c>
@@ -15665,7 +15712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>185</v>
       </c>
@@ -15719,7 +15766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>22</v>
       </c>
@@ -15777,7 +15824,7 @@
       <c r="AA160" s="15"/>
       <c r="AB160" s="15"/>
     </row>
-    <row r="161" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>22</v>
       </c>
@@ -15835,7 +15882,7 @@
       <c r="AA161" s="15"/>
       <c r="AB161" s="15"/>
     </row>
-    <row r="162" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>21</v>
       </c>
@@ -15927,7 +15974,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="163" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>185</v>
       </c>
@@ -16005,7 +16052,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="164" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>185</v>
       </c>
@@ -16083,7 +16130,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="165" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>185</v>
       </c>
@@ -16161,7 +16208,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="166" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>21</v>
       </c>
@@ -16219,7 +16266,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>21</v>
       </c>
@@ -16305,7 +16352,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="168" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>185</v>
       </c>
@@ -16383,7 +16430,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="169" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>30</v>
       </c>
@@ -16471,7 +16518,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="170" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>30</v>
       </c>
@@ -16553,7 +16600,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="171" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>30</v>
       </c>
@@ -16635,7 +16682,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="172" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>23</v>
       </c>
@@ -16717,7 +16764,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="173" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>23</v>
       </c>
@@ -16803,7 +16850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:28" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>23</v>
       </c>
@@ -16889,7 +16936,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>21</v>
       </c>
@@ -16981,7 +17028,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>21</v>
       </c>
@@ -17073,7 +17120,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>21</v>
       </c>
@@ -17165,7 +17212,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>21</v>
       </c>
@@ -17257,7 +17304,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>21</v>
       </c>
@@ -17349,7 +17396,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:41" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:41" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>28</v>
       </c>
@@ -17421,7 +17468,7 @@
       <c r="AN180" s="1"/>
       <c r="AO180" s="1"/>
     </row>
-    <row r="181" spans="1:41" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:41" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>21</v>
       </c>
@@ -17531,7 +17578,7 @@
       <c r="AN181" s="1"/>
       <c r="AO181" s="1"/>
     </row>
-    <row r="182" spans="1:41" s="21" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:41" s="21" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>23</v>
       </c>
@@ -17629,7 +17676,7 @@
       <c r="AN182" s="1"/>
       <c r="AO182" s="1"/>
     </row>
-    <row r="183" spans="1:41" s="21" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:41" s="21" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>23</v>
       </c>
@@ -17727,7 +17774,7 @@
       <c r="AN183" s="1"/>
       <c r="AO183" s="1"/>
     </row>
-    <row r="184" spans="1:41" s="21" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:41" s="21" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>23</v>
       </c>
@@ -17801,7 +17848,7 @@
       <c r="AN184" s="1"/>
       <c r="AO184" s="1"/>
     </row>
-    <row r="185" spans="1:41" s="21" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:41" s="21" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="19" t="s">
         <v>20</v>
       </c>
@@ -17911,7 +17958,7 @@
       <c r="AN185" s="1"/>
       <c r="AO185" s="1"/>
     </row>
-    <row r="186" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="19" t="s">
         <v>20</v>
       </c>
@@ -18009,7 +18056,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="187" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="19" t="s">
         <v>20</v>
       </c>
@@ -18107,7 +18154,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="188" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="19" t="s">
         <v>20</v>
       </c>
@@ -18205,7 +18252,7 @@
         <v>381.25</v>
       </c>
     </row>
-    <row r="189" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="19" t="s">
         <v>20</v>
       </c>
@@ -18303,7 +18350,7 @@
         <v>532.5</v>
       </c>
     </row>
-    <row r="190" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="19" t="s">
         <v>20</v>
       </c>
@@ -18401,7 +18448,7 @@
         <v>491.25</v>
       </c>
     </row>
-    <row r="191" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>185</v>
       </c>
@@ -18479,7 +18526,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>22</v>
       </c>
@@ -18577,7 +18624,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="193" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>23</v>
       </c>
@@ -18663,7 +18710,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="194" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>23</v>
       </c>
@@ -18761,7 +18808,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="195" spans="1:41" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:41" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>23</v>
       </c>
@@ -18859,7 +18906,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="196" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>23</v>
       </c>
@@ -18951,7 +18998,7 @@
         <v>0.94760000000000011</v>
       </c>
     </row>
-    <row r="197" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>23</v>
       </c>
@@ -19013,7 +19060,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>23</v>
       </c>
@@ -19109,7 +19156,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="199" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>23</v>
       </c>
@@ -19205,7 +19252,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="200" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>23</v>
       </c>
@@ -19301,7 +19348,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="201" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>23</v>
       </c>
@@ -19397,7 +19444,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="202" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>22</v>
       </c>
@@ -19507,7 +19554,7 @@
       <c r="AN202" s="1"/>
       <c r="AO202" s="1"/>
     </row>
-    <row r="203" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>23</v>
       </c>
@@ -19611,7 +19658,7 @@
       <c r="AN203" s="1"/>
       <c r="AO203" s="1"/>
     </row>
-    <row r="204" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>23</v>
       </c>
@@ -19715,7 +19762,7 @@
       <c r="AN204" s="1"/>
       <c r="AO204" s="1"/>
     </row>
-    <row r="205" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>23</v>
       </c>
@@ -19819,7 +19866,7 @@
       <c r="AN205" s="1"/>
       <c r="AO205" s="1"/>
     </row>
-    <row r="206" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>23</v>
       </c>
@@ -19917,7 +19964,7 @@
       <c r="AN206" s="1"/>
       <c r="AO206" s="1"/>
     </row>
-    <row r="207" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>23</v>
       </c>
@@ -20015,7 +20062,7 @@
       <c r="AN207" s="1"/>
       <c r="AO207" s="1"/>
     </row>
-    <row r="208" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>23</v>
       </c>
@@ -20113,7 +20160,7 @@
       <c r="AN208" s="1"/>
       <c r="AO208" s="1"/>
     </row>
-    <row r="209" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>23</v>
       </c>
@@ -20211,7 +20258,7 @@
       <c r="AN209" s="1"/>
       <c r="AO209" s="1"/>
     </row>
-    <row r="210" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>23</v>
       </c>
@@ -20315,7 +20362,7 @@
       <c r="AN210" s="1"/>
       <c r="AO210" s="1"/>
     </row>
-    <row r="211" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>23</v>
       </c>
@@ -20413,7 +20460,7 @@
       <c r="AN211" s="1"/>
       <c r="AO211" s="1"/>
     </row>
-    <row r="212" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>23</v>
       </c>
@@ -20511,7 +20558,7 @@
       <c r="AN212" s="1"/>
       <c r="AO212" s="1"/>
     </row>
-    <row r="213" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>23</v>
       </c>
@@ -20609,7 +20656,7 @@
       <c r="AN213" s="1"/>
       <c r="AO213" s="1"/>
     </row>
-    <row r="214" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>23</v>
       </c>
@@ -20707,7 +20754,7 @@
       <c r="AN214" s="1"/>
       <c r="AO214" s="1"/>
     </row>
-    <row r="215" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>23</v>
       </c>
@@ -20805,7 +20852,7 @@
       <c r="AN215" s="1"/>
       <c r="AO215" s="1"/>
     </row>
-    <row r="216" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>23</v>
       </c>
@@ -20903,7 +20950,7 @@
       <c r="AN216" s="1"/>
       <c r="AO216" s="1"/>
     </row>
-    <row r="217" spans="1:41" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>23</v>
       </c>
@@ -21001,7 +21048,7 @@
       <c r="AN217" s="1"/>
       <c r="AO217" s="1"/>
     </row>
-    <row r="218" spans="1:41" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>23</v>
       </c>
@@ -21099,7 +21146,7 @@
       <c r="AN218" s="1"/>
       <c r="AO218" s="1"/>
     </row>
-    <row r="219" spans="1:41" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>23</v>
       </c>
@@ -21197,7 +21244,7 @@
       <c r="AN219" s="1"/>
       <c r="AO219" s="1"/>
     </row>
-    <row r="220" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>23</v>
       </c>
@@ -21295,7 +21342,7 @@
       <c r="AN220" s="1"/>
       <c r="AO220" s="1"/>
     </row>
-    <row r="221" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>23</v>
       </c>
@@ -21393,7 +21440,7 @@
       <c r="AN221" s="1"/>
       <c r="AO221" s="1"/>
     </row>
-    <row r="222" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>23</v>
       </c>
@@ -21491,7 +21538,7 @@
       <c r="AN222" s="1"/>
       <c r="AO222" s="1"/>
     </row>
-    <row r="223" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>23</v>
       </c>
@@ -21587,7 +21634,7 @@
       <c r="AN223" s="1"/>
       <c r="AO223" s="1"/>
     </row>
-    <row r="224" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>23</v>
       </c>
@@ -21683,7 +21730,7 @@
       <c r="AN224" s="1"/>
       <c r="AO224" s="1"/>
     </row>
-    <row r="225" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>23</v>
       </c>
@@ -21791,7 +21838,7 @@
       <c r="AN225" s="1"/>
       <c r="AO225" s="1"/>
     </row>
-    <row r="226" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:41" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>23</v>
       </c>
@@ -21899,7 +21946,7 @@
       <c r="AN226" s="1"/>
       <c r="AO226" s="1"/>
     </row>
-    <row r="227" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="19" t="s">
         <v>28</v>
       </c>
@@ -22005,7 +22052,7 @@
       <c r="AN227" s="1"/>
       <c r="AO227" s="1"/>
     </row>
-    <row r="228" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="19" t="s">
         <v>28</v>
       </c>
@@ -22111,7 +22158,7 @@
       <c r="AN228" s="1"/>
       <c r="AO228" s="1"/>
     </row>
-    <row r="229" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="19" t="s">
         <v>28</v>
       </c>
@@ -22217,7 +22264,7 @@
       <c r="AN229" s="1"/>
       <c r="AO229" s="1"/>
     </row>
-    <row r="230" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="19" t="s">
         <v>28</v>
       </c>
@@ -22323,7 +22370,7 @@
       <c r="AN230" s="1"/>
       <c r="AO230" s="1"/>
     </row>
-    <row r="231" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="19" t="s">
         <v>28</v>
       </c>
@@ -22429,7 +22476,7 @@
       <c r="AN231" s="1"/>
       <c r="AO231" s="1"/>
     </row>
-    <row r="232" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="19" t="s">
         <v>28</v>
       </c>
@@ -22535,7 +22582,7 @@
       <c r="AN232" s="1"/>
       <c r="AO232" s="1"/>
     </row>
-    <row r="233" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="19" t="s">
         <v>28</v>
       </c>
@@ -22631,7 +22678,7 @@
       <c r="AN233" s="1"/>
       <c r="AO233" s="1"/>
     </row>
-    <row r="234" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>22</v>
       </c>
@@ -22741,7 +22788,7 @@
       <c r="AN234" s="1"/>
       <c r="AO234" s="1"/>
     </row>
-    <row r="235" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>22</v>
       </c>
@@ -22851,7 +22898,7 @@
       <c r="AN235" s="1"/>
       <c r="AO235" s="1"/>
     </row>
-    <row r="236" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>22</v>
       </c>
@@ -22961,7 +23008,7 @@
       <c r="AN236" s="1"/>
       <c r="AO236" s="1"/>
     </row>
-    <row r="237" spans="1:41" s="33" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:41" s="33" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="19" t="s">
         <v>20</v>
       </c>
@@ -23059,7 +23106,7 @@
       <c r="AN237" s="1"/>
       <c r="AO237" s="1"/>
     </row>
-    <row r="238" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>185</v>
       </c>
@@ -23144,87 +23191,85 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AB238">
+  <autoFilter ref="A2:AB238" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="battery cell mass share, LFP"/>
-        <filter val="battery cell mass share, LTO"/>
-        <filter val="battery cell mass share, NCA"/>
-        <filter val="battery cell mass share, NMC"/>
+        <filter val="glider base mass"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H237" r:id="rId1"/>
-    <hyperlink ref="H21" r:id="rId2"/>
-    <hyperlink ref="H162" r:id="rId3"/>
-    <hyperlink ref="H149" r:id="rId4"/>
-    <hyperlink ref="H148" r:id="rId5"/>
-    <hyperlink ref="H137" r:id="rId6"/>
-    <hyperlink ref="H138" r:id="rId7"/>
-    <hyperlink ref="H139" r:id="rId8"/>
-    <hyperlink ref="H140" r:id="rId9"/>
-    <hyperlink ref="H48" r:id="rId10"/>
-    <hyperlink ref="H68" r:id="rId11"/>
-    <hyperlink ref="H69" r:id="rId12"/>
-    <hyperlink ref="H12" r:id="rId13"/>
-    <hyperlink ref="H13" r:id="rId14"/>
-    <hyperlink ref="H174" r:id="rId15"/>
-    <hyperlink ref="H167" r:id="rId16"/>
-    <hyperlink ref="H90" r:id="rId17"/>
-    <hyperlink ref="H91" r:id="rId18"/>
-    <hyperlink ref="H92" r:id="rId19"/>
-    <hyperlink ref="H3" r:id="rId20"/>
-    <hyperlink ref="H4" r:id="rId21"/>
-    <hyperlink ref="H6" r:id="rId22"/>
-    <hyperlink ref="H8" r:id="rId23"/>
-    <hyperlink ref="H5" r:id="rId24"/>
-    <hyperlink ref="H7" r:id="rId25"/>
-    <hyperlink ref="H15" r:id="rId26"/>
-    <hyperlink ref="H16" r:id="rId27"/>
-    <hyperlink ref="H17" r:id="rId28"/>
-    <hyperlink ref="H18" r:id="rId29"/>
-    <hyperlink ref="H19" r:id="rId30"/>
-    <hyperlink ref="H20" r:id="rId31"/>
-    <hyperlink ref="H114:H119" r:id="rId32" display="https://ec.europa.eu/clima/sites/clima/files/transport/vehicles/heavy/docs/hdv_lightweighting_en.pdf"/>
-    <hyperlink ref="H131" r:id="rId33"/>
-    <hyperlink ref="H132" r:id="rId34"/>
-    <hyperlink ref="H133" r:id="rId35"/>
-    <hyperlink ref="H134" r:id="rId36"/>
-    <hyperlink ref="H135" r:id="rId37"/>
-    <hyperlink ref="H136" r:id="rId38"/>
-    <hyperlink ref="H151" r:id="rId39"/>
-    <hyperlink ref="H152" r:id="rId40"/>
-    <hyperlink ref="H153" r:id="rId41"/>
-    <hyperlink ref="H154" r:id="rId42"/>
-    <hyperlink ref="H155" r:id="rId43"/>
-    <hyperlink ref="H156" r:id="rId44"/>
-    <hyperlink ref="H185" r:id="rId45"/>
-    <hyperlink ref="H186" r:id="rId46"/>
-    <hyperlink ref="H187" r:id="rId47"/>
-    <hyperlink ref="H188" r:id="rId48"/>
-    <hyperlink ref="H189" r:id="rId49"/>
-    <hyperlink ref="H190" r:id="rId50"/>
-    <hyperlink ref="H233" r:id="rId51"/>
-    <hyperlink ref="H50" r:id="rId52"/>
-    <hyperlink ref="H234" r:id="rId53" location="bib41"/>
-    <hyperlink ref="H87" r:id="rId54"/>
-    <hyperlink ref="H88" r:id="rId55"/>
-    <hyperlink ref="H235" r:id="rId56" location="bib41"/>
-    <hyperlink ref="H236" r:id="rId57" location="bib41"/>
-    <hyperlink ref="H117" r:id="rId58"/>
-    <hyperlink ref="H122:H127" r:id="rId59" display="https://ec.europa.eu/clima/sites/clima/files/transport/vehicles/heavy/docs/hdv_lightweighting_en.pdf"/>
-    <hyperlink ref="H184" r:id="rId60"/>
-    <hyperlink ref="H97" r:id="rId61"/>
-    <hyperlink ref="H141" r:id="rId62"/>
-    <hyperlink ref="H203" r:id="rId63"/>
-    <hyperlink ref="H70" r:id="rId64"/>
-    <hyperlink ref="H71" r:id="rId65"/>
-    <hyperlink ref="H75" r:id="rId66"/>
-    <hyperlink ref="H76" r:id="rId67"/>
+    <hyperlink ref="H237" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H162" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H149" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H148" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H137" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H138" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H139" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H140" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H48" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H68" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H69" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H174" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H167" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H90" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H91" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H92" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H3" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H4" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H6" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H5" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H7" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H19" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H20" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H114:H119" r:id="rId32" display="https://ec.europa.eu/clima/sites/clima/files/transport/vehicles/heavy/docs/hdv_lightweighting_en.pdf" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H131" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H132" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H133" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H134" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H135" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H136" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H151" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H152" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H153" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H154" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H155" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H156" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H185" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H186" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H187" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H188" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H189" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="H190" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H233" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H50" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="H234" r:id="rId53" location="bib41" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="H87" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="H88" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H235" r:id="rId56" location="bib41" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H236" r:id="rId57" location="bib41" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H117" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H122:H127" r:id="rId59" display="https://ec.europa.eu/clima/sites/clima/files/transport/vehicles/heavy/docs/hdv_lightweighting_en.pdf" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H184" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H97" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H141" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H203" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H70" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H71" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="H109" r:id="rId68" xr:uid="{A7A9B440-60B3-3F42-B5DD-7FAA8253B7D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>